--- a/SchemeIBMETR/SchemeIBMECH.xlsx
+++ b/SchemeIBMETR/SchemeIBMECH.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R7"/>
+  <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -528,11 +528,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>SS512</t>
+          <t>MNT159</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>128</v>
+        <v>512</v>
       </c>
       <c r="C2" t="n">
         <v>20</v>
@@ -544,34 +544,34 @@
         <v>20</v>
       </c>
       <c r="F2" t="n">
-        <v>0.001368952</v>
+        <v>0.000782526</v>
       </c>
       <c r="G2" t="n">
-        <v>0.012511086</v>
+        <v>0.005061018</v>
       </c>
       <c r="H2" t="n">
-        <v>0.012625456</v>
+        <v>0.044889295</v>
       </c>
       <c r="I2" t="n">
-        <v>0.015131009</v>
+        <v>0.011978185</v>
       </c>
       <c r="J2" t="n">
-        <v>0.011512291</v>
+        <v>0.040101564</v>
       </c>
       <c r="K2" t="n">
-        <v>17574707.2</v>
+        <v>17697382.4</v>
       </c>
       <c r="L2" t="n">
-        <v>17581465.6</v>
+        <v>17761075.2</v>
       </c>
       <c r="M2" t="n">
-        <v>17581465.6</v>
+        <v>17761075.2</v>
       </c>
       <c r="N2" t="n">
-        <v>17581465.6</v>
+        <v>17761075.2</v>
       </c>
       <c r="O2" t="n">
-        <v>17581465.6</v>
+        <v>17761075.2</v>
       </c>
       <c r="P2" t="n">
         <v>104</v>
@@ -586,11 +586,11 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>SS512</t>
+          <t>MNT201</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>160</v>
+        <v>512</v>
       </c>
       <c r="C3" t="n">
         <v>20</v>
@@ -602,34 +602,34 @@
         <v>20</v>
       </c>
       <c r="F3" t="n">
-        <v>0.001377726</v>
+        <v>0.001343608</v>
       </c>
       <c r="G3" t="n">
-        <v>0.012714601</v>
+        <v>0.007150722</v>
       </c>
       <c r="H3" t="n">
-        <v>0.012782085</v>
+        <v>0.057588804</v>
       </c>
       <c r="I3" t="n">
-        <v>0.015227735</v>
+        <v>0.017034423</v>
       </c>
       <c r="J3" t="n">
-        <v>0.011393666</v>
+        <v>0.051809621</v>
       </c>
       <c r="K3" t="n">
-        <v>17629184</v>
+        <v>17834188.8</v>
       </c>
       <c r="L3" t="n">
-        <v>17629184</v>
+        <v>17864499.2</v>
       </c>
       <c r="M3" t="n">
-        <v>17629184</v>
+        <v>17864499.2</v>
       </c>
       <c r="N3" t="n">
-        <v>17629184</v>
+        <v>17864499.2</v>
       </c>
       <c r="O3" t="n">
-        <v>17629184</v>
+        <v>17864499.2</v>
       </c>
       <c r="P3" t="n">
         <v>104</v>
@@ -644,11 +644,11 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>SS512</t>
+          <t>MNT224</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>224</v>
+        <v>512</v>
       </c>
       <c r="C4" t="n">
         <v>20</v>
@@ -660,34 +660,34 @@
         <v>20</v>
       </c>
       <c r="F4" t="n">
-        <v>0.001491892</v>
+        <v>0.001549947</v>
       </c>
       <c r="G4" t="n">
-        <v>0.012972295</v>
+        <v>0.008833384999999999</v>
       </c>
       <c r="H4" t="n">
-        <v>0.01285212</v>
+        <v>0.070989013</v>
       </c>
       <c r="I4" t="n">
-        <v>0.015191519</v>
+        <v>0.019518232</v>
       </c>
       <c r="J4" t="n">
-        <v>0.011124802</v>
+        <v>0.062476432</v>
       </c>
       <c r="K4" t="n">
-        <v>17629184</v>
+        <v>17886822.4</v>
       </c>
       <c r="L4" t="n">
-        <v>17629184</v>
+        <v>17905664</v>
       </c>
       <c r="M4" t="n">
-        <v>17629184</v>
+        <v>17905664</v>
       </c>
       <c r="N4" t="n">
-        <v>17629184</v>
+        <v>17905664</v>
       </c>
       <c r="O4" t="n">
-        <v>17629184</v>
+        <v>17905664</v>
       </c>
       <c r="P4" t="n">
         <v>104</v>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>256</v>
+        <v>128</v>
       </c>
       <c r="C5" t="n">
         <v>20</v>
@@ -718,34 +718,34 @@
         <v>20</v>
       </c>
       <c r="F5" t="n">
-        <v>0.001531386</v>
+        <v>0.001719761</v>
       </c>
       <c r="G5" t="n">
-        <v>0.012876236</v>
+        <v>0.01428448</v>
       </c>
       <c r="H5" t="n">
-        <v>0.012954819</v>
+        <v>0.014179206</v>
       </c>
       <c r="I5" t="n">
-        <v>0.015174067</v>
+        <v>0.016858089</v>
       </c>
       <c r="J5" t="n">
-        <v>0.011550379</v>
+        <v>0.012849689</v>
       </c>
       <c r="K5" t="n">
-        <v>17629184</v>
+        <v>17989632</v>
       </c>
       <c r="L5" t="n">
-        <v>17629184</v>
+        <v>17989632</v>
       </c>
       <c r="M5" t="n">
-        <v>17629184</v>
+        <v>17989632</v>
       </c>
       <c r="N5" t="n">
-        <v>17629184</v>
+        <v>17989632</v>
       </c>
       <c r="O5" t="n">
-        <v>17629184</v>
+        <v>17989632</v>
       </c>
       <c r="P5" t="n">
         <v>104</v>
@@ -764,7 +764,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>384</v>
+        <v>160</v>
       </c>
       <c r="C6" t="n">
         <v>20</v>
@@ -776,34 +776,34 @@
         <v>20</v>
       </c>
       <c r="F6" t="n">
-        <v>0.001451826</v>
+        <v>0.001662135</v>
       </c>
       <c r="G6" t="n">
-        <v>0.01284517</v>
+        <v>0.012737262</v>
       </c>
       <c r="H6" t="n">
-        <v>0.012896645</v>
+        <v>0.013528812</v>
       </c>
       <c r="I6" t="n">
-        <v>0.015237832</v>
+        <v>0.01528455</v>
       </c>
       <c r="J6" t="n">
-        <v>0.011446524</v>
+        <v>0.011559737</v>
       </c>
       <c r="K6" t="n">
-        <v>17629184</v>
+        <v>17989632</v>
       </c>
       <c r="L6" t="n">
-        <v>17629184</v>
+        <v>17989632</v>
       </c>
       <c r="M6" t="n">
-        <v>17629184</v>
+        <v>17989632</v>
       </c>
       <c r="N6" t="n">
-        <v>17629184</v>
+        <v>17989632</v>
       </c>
       <c r="O6" t="n">
-        <v>17629184</v>
+        <v>17989632</v>
       </c>
       <c r="P6" t="n">
         <v>104</v>
@@ -822,7 +822,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>512</v>
+        <v>224</v>
       </c>
       <c r="C7" t="n">
         <v>20</v>
@@ -834,34 +834,34 @@
         <v>20</v>
       </c>
       <c r="F7" t="n">
-        <v>0.00150795</v>
+        <v>0.001555836</v>
       </c>
       <c r="G7" t="n">
-        <v>0.012805402</v>
+        <v>0.012916672</v>
       </c>
       <c r="H7" t="n">
-        <v>0.012783968</v>
+        <v>0.013057399</v>
       </c>
       <c r="I7" t="n">
-        <v>0.015401495</v>
+        <v>0.015018916</v>
       </c>
       <c r="J7" t="n">
-        <v>0.011709523</v>
+        <v>0.011732829</v>
       </c>
       <c r="K7" t="n">
-        <v>17629184</v>
+        <v>17989632</v>
       </c>
       <c r="L7" t="n">
-        <v>17629184</v>
+        <v>17989632</v>
       </c>
       <c r="M7" t="n">
-        <v>17629184</v>
+        <v>17989632</v>
       </c>
       <c r="N7" t="n">
-        <v>17629184</v>
+        <v>17989632</v>
       </c>
       <c r="O7" t="n">
-        <v>17629184</v>
+        <v>17989632</v>
       </c>
       <c r="P7" t="n">
         <v>104</v>
@@ -870,6 +870,180 @@
         <v>64</v>
       </c>
       <c r="R7" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>SS512</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>256</v>
+      </c>
+      <c r="C8" t="n">
+        <v>20</v>
+      </c>
+      <c r="D8" t="n">
+        <v>20</v>
+      </c>
+      <c r="E8" t="n">
+        <v>20</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.001542807</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.014727831</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.014608085</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.016889131</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.01244874</v>
+      </c>
+      <c r="K8" t="n">
+        <v>17989632</v>
+      </c>
+      <c r="L8" t="n">
+        <v>17989632</v>
+      </c>
+      <c r="M8" t="n">
+        <v>17989632</v>
+      </c>
+      <c r="N8" t="n">
+        <v>17989632</v>
+      </c>
+      <c r="O8" t="n">
+        <v>17989632</v>
+      </c>
+      <c r="P8" t="n">
+        <v>104</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>64</v>
+      </c>
+      <c r="R8" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>SS512</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>384</v>
+      </c>
+      <c r="C9" t="n">
+        <v>20</v>
+      </c>
+      <c r="D9" t="n">
+        <v>20</v>
+      </c>
+      <c r="E9" t="n">
+        <v>20</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.001709652</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.014466238</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.014772856</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.016612387</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.012647295</v>
+      </c>
+      <c r="K9" t="n">
+        <v>17989632</v>
+      </c>
+      <c r="L9" t="n">
+        <v>17989632</v>
+      </c>
+      <c r="M9" t="n">
+        <v>17989632</v>
+      </c>
+      <c r="N9" t="n">
+        <v>17989632</v>
+      </c>
+      <c r="O9" t="n">
+        <v>17989632</v>
+      </c>
+      <c r="P9" t="n">
+        <v>104</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>64</v>
+      </c>
+      <c r="R9" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>SS512</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>512</v>
+      </c>
+      <c r="C10" t="n">
+        <v>20</v>
+      </c>
+      <c r="D10" t="n">
+        <v>20</v>
+      </c>
+      <c r="E10" t="n">
+        <v>20</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.001668262</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.014079392</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.013857687</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.016103268</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.012204862</v>
+      </c>
+      <c r="K10" t="n">
+        <v>17989632</v>
+      </c>
+      <c r="L10" t="n">
+        <v>17989632</v>
+      </c>
+      <c r="M10" t="n">
+        <v>17989632</v>
+      </c>
+      <c r="N10" t="n">
+        <v>17989632</v>
+      </c>
+      <c r="O10" t="n">
+        <v>17989632</v>
+      </c>
+      <c r="P10" t="n">
+        <v>104</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>64</v>
+      </c>
+      <c r="R10" t="n">
         <v>56</v>
       </c>
     </row>

--- a/SchemeIBMETR/SchemeIBMECH.xlsx
+++ b/SchemeIBMETR/SchemeIBMECH.xlsx
@@ -544,34 +544,34 @@
         <v>20</v>
       </c>
       <c r="F2" t="n">
-        <v>0.000782526</v>
+        <v>0.000889957</v>
       </c>
       <c r="G2" t="n">
-        <v>0.005061018</v>
+        <v>0.004827082</v>
       </c>
       <c r="H2" t="n">
-        <v>0.044889295</v>
+        <v>0.041602457</v>
       </c>
       <c r="I2" t="n">
-        <v>0.011978185</v>
+        <v>0.011328793</v>
       </c>
       <c r="J2" t="n">
-        <v>0.040101564</v>
+        <v>0.038016272</v>
       </c>
       <c r="K2" t="n">
-        <v>17697382.4</v>
+        <v>17697996.8</v>
       </c>
       <c r="L2" t="n">
-        <v>17761075.2</v>
+        <v>17705369.6</v>
       </c>
       <c r="M2" t="n">
-        <v>17761075.2</v>
+        <v>17705369.6</v>
       </c>
       <c r="N2" t="n">
-        <v>17761075.2</v>
+        <v>17705369.6</v>
       </c>
       <c r="O2" t="n">
-        <v>17761075.2</v>
+        <v>17705369.6</v>
       </c>
       <c r="P2" t="n">
         <v>104</v>
@@ -602,34 +602,34 @@
         <v>20</v>
       </c>
       <c r="F3" t="n">
-        <v>0.001343608</v>
+        <v>0.001268029</v>
       </c>
       <c r="G3" t="n">
-        <v>0.007150722</v>
+        <v>0.006803977</v>
       </c>
       <c r="H3" t="n">
-        <v>0.057588804</v>
+        <v>0.057313204</v>
       </c>
       <c r="I3" t="n">
-        <v>0.017034423</v>
+        <v>0.016080987</v>
       </c>
       <c r="J3" t="n">
-        <v>0.051809621</v>
+        <v>0.051618648</v>
       </c>
       <c r="K3" t="n">
-        <v>17834188.8</v>
+        <v>17719296</v>
       </c>
       <c r="L3" t="n">
-        <v>17864499.2</v>
+        <v>17719296</v>
       </c>
       <c r="M3" t="n">
-        <v>17864499.2</v>
+        <v>17719296</v>
       </c>
       <c r="N3" t="n">
-        <v>17864499.2</v>
+        <v>17719296</v>
       </c>
       <c r="O3" t="n">
-        <v>17864499.2</v>
+        <v>17719296</v>
       </c>
       <c r="P3" t="n">
         <v>104</v>
@@ -660,34 +660,34 @@
         <v>20</v>
       </c>
       <c r="F4" t="n">
-        <v>0.001549947</v>
+        <v>0.001735902</v>
       </c>
       <c r="G4" t="n">
-        <v>0.008833384999999999</v>
+        <v>0.008932769</v>
       </c>
       <c r="H4" t="n">
-        <v>0.070989013</v>
+        <v>0.07029516700000001</v>
       </c>
       <c r="I4" t="n">
-        <v>0.019518232</v>
+        <v>0.019600642</v>
       </c>
       <c r="J4" t="n">
-        <v>0.062476432</v>
+        <v>0.062259114</v>
       </c>
       <c r="K4" t="n">
-        <v>17886822.4</v>
+        <v>17719296</v>
       </c>
       <c r="L4" t="n">
-        <v>17905664</v>
+        <v>17719296</v>
       </c>
       <c r="M4" t="n">
-        <v>17905664</v>
+        <v>17719296</v>
       </c>
       <c r="N4" t="n">
-        <v>17905664</v>
+        <v>17719296</v>
       </c>
       <c r="O4" t="n">
-        <v>17905664</v>
+        <v>17719296</v>
       </c>
       <c r="P4" t="n">
         <v>104</v>
@@ -718,34 +718,34 @@
         <v>20</v>
       </c>
       <c r="F5" t="n">
-        <v>0.001719761</v>
+        <v>0.001493967</v>
       </c>
       <c r="G5" t="n">
-        <v>0.01428448</v>
+        <v>0.013495505</v>
       </c>
       <c r="H5" t="n">
-        <v>0.014179206</v>
+        <v>0.013662255</v>
       </c>
       <c r="I5" t="n">
-        <v>0.016858089</v>
+        <v>0.016206777</v>
       </c>
       <c r="J5" t="n">
-        <v>0.012849689</v>
+        <v>0.012144637</v>
       </c>
       <c r="K5" t="n">
-        <v>17989632</v>
+        <v>17719296</v>
       </c>
       <c r="L5" t="n">
-        <v>17989632</v>
+        <v>17719296</v>
       </c>
       <c r="M5" t="n">
-        <v>17989632</v>
+        <v>17719296</v>
       </c>
       <c r="N5" t="n">
-        <v>17989632</v>
+        <v>17719296</v>
       </c>
       <c r="O5" t="n">
-        <v>17989632</v>
+        <v>17719296</v>
       </c>
       <c r="P5" t="n">
         <v>104</v>
@@ -776,34 +776,34 @@
         <v>20</v>
       </c>
       <c r="F6" t="n">
-        <v>0.001662135</v>
+        <v>0.001771438</v>
       </c>
       <c r="G6" t="n">
-        <v>0.012737262</v>
+        <v>0.013549173</v>
       </c>
       <c r="H6" t="n">
-        <v>0.013528812</v>
+        <v>0.01348021</v>
       </c>
       <c r="I6" t="n">
-        <v>0.01528455</v>
+        <v>0.015895617</v>
       </c>
       <c r="J6" t="n">
-        <v>0.011559737</v>
+        <v>0.012124336</v>
       </c>
       <c r="K6" t="n">
-        <v>17989632</v>
+        <v>17719296</v>
       </c>
       <c r="L6" t="n">
-        <v>17989632</v>
+        <v>17719296</v>
       </c>
       <c r="M6" t="n">
-        <v>17989632</v>
+        <v>17719296</v>
       </c>
       <c r="N6" t="n">
-        <v>17989632</v>
+        <v>17719296</v>
       </c>
       <c r="O6" t="n">
-        <v>17989632</v>
+        <v>17719296</v>
       </c>
       <c r="P6" t="n">
         <v>104</v>
@@ -834,34 +834,34 @@
         <v>20</v>
       </c>
       <c r="F7" t="n">
-        <v>0.001555836</v>
+        <v>0.001605809</v>
       </c>
       <c r="G7" t="n">
-        <v>0.012916672</v>
+        <v>0.014143431</v>
       </c>
       <c r="H7" t="n">
-        <v>0.013057399</v>
+        <v>0.01392262</v>
       </c>
       <c r="I7" t="n">
-        <v>0.015018916</v>
+        <v>0.016678429</v>
       </c>
       <c r="J7" t="n">
-        <v>0.011732829</v>
+        <v>0.012673652</v>
       </c>
       <c r="K7" t="n">
-        <v>17989632</v>
+        <v>17719296</v>
       </c>
       <c r="L7" t="n">
-        <v>17989632</v>
+        <v>17719296</v>
       </c>
       <c r="M7" t="n">
-        <v>17989632</v>
+        <v>17719296</v>
       </c>
       <c r="N7" t="n">
-        <v>17989632</v>
+        <v>17719296</v>
       </c>
       <c r="O7" t="n">
-        <v>17989632</v>
+        <v>17719296</v>
       </c>
       <c r="P7" t="n">
         <v>104</v>
@@ -892,34 +892,34 @@
         <v>20</v>
       </c>
       <c r="F8" t="n">
-        <v>0.001542807</v>
+        <v>0.001595843</v>
       </c>
       <c r="G8" t="n">
-        <v>0.014727831</v>
+        <v>0.013463414</v>
       </c>
       <c r="H8" t="n">
-        <v>0.014608085</v>
+        <v>0.01343478</v>
       </c>
       <c r="I8" t="n">
-        <v>0.016889131</v>
+        <v>0.015948975</v>
       </c>
       <c r="J8" t="n">
-        <v>0.01244874</v>
+        <v>0.012162435</v>
       </c>
       <c r="K8" t="n">
-        <v>17989632</v>
+        <v>17852416</v>
       </c>
       <c r="L8" t="n">
-        <v>17989632</v>
+        <v>17852416</v>
       </c>
       <c r="M8" t="n">
-        <v>17989632</v>
+        <v>17852416</v>
       </c>
       <c r="N8" t="n">
-        <v>17989632</v>
+        <v>17852416</v>
       </c>
       <c r="O8" t="n">
-        <v>17989632</v>
+        <v>17852416</v>
       </c>
       <c r="P8" t="n">
         <v>104</v>
@@ -950,34 +950,34 @@
         <v>20</v>
       </c>
       <c r="F9" t="n">
-        <v>0.001709652</v>
+        <v>0.001764619</v>
       </c>
       <c r="G9" t="n">
-        <v>0.014466238</v>
+        <v>0.013964617</v>
       </c>
       <c r="H9" t="n">
-        <v>0.014772856</v>
+        <v>0.014169383</v>
       </c>
       <c r="I9" t="n">
-        <v>0.016612387</v>
+        <v>0.016899502</v>
       </c>
       <c r="J9" t="n">
-        <v>0.012647295</v>
+        <v>0.012685394</v>
       </c>
       <c r="K9" t="n">
-        <v>17989632</v>
+        <v>17985536</v>
       </c>
       <c r="L9" t="n">
-        <v>17989632</v>
+        <v>17985536</v>
       </c>
       <c r="M9" t="n">
-        <v>17989632</v>
+        <v>17985536</v>
       </c>
       <c r="N9" t="n">
-        <v>17989632</v>
+        <v>17985536</v>
       </c>
       <c r="O9" t="n">
-        <v>17989632</v>
+        <v>17985536</v>
       </c>
       <c r="P9" t="n">
         <v>104</v>
@@ -1008,34 +1008,34 @@
         <v>20</v>
       </c>
       <c r="F10" t="n">
-        <v>0.001668262</v>
+        <v>0.001575935</v>
       </c>
       <c r="G10" t="n">
-        <v>0.014079392</v>
+        <v>0.013432562</v>
       </c>
       <c r="H10" t="n">
-        <v>0.013857687</v>
+        <v>0.013294375</v>
       </c>
       <c r="I10" t="n">
-        <v>0.016103268</v>
+        <v>0.015791869</v>
       </c>
       <c r="J10" t="n">
-        <v>0.012204862</v>
+        <v>0.012216055</v>
       </c>
       <c r="K10" t="n">
-        <v>17989632</v>
+        <v>17985536</v>
       </c>
       <c r="L10" t="n">
-        <v>17989632</v>
+        <v>17985536</v>
       </c>
       <c r="M10" t="n">
-        <v>17989632</v>
+        <v>17985536</v>
       </c>
       <c r="N10" t="n">
-        <v>17989632</v>
+        <v>17985536</v>
       </c>
       <c r="O10" t="n">
-        <v>17989632</v>
+        <v>17985536</v>
       </c>
       <c r="P10" t="n">
         <v>104</v>

--- a/SchemeIBMETR/SchemeIBMECH.xlsx
+++ b/SchemeIBMETR/SchemeIBMECH.xlsx
@@ -544,34 +544,34 @@
         <v>20</v>
       </c>
       <c r="F2" t="n">
-        <v>0.000889957</v>
+        <v>0.000815654</v>
       </c>
       <c r="G2" t="n">
-        <v>0.004827082</v>
+        <v>0.004573405</v>
       </c>
       <c r="H2" t="n">
-        <v>0.041602457</v>
+        <v>0.040384626</v>
       </c>
       <c r="I2" t="n">
-        <v>0.011328793</v>
+        <v>0.011084151</v>
       </c>
       <c r="J2" t="n">
-        <v>0.038016272</v>
+        <v>0.036140811</v>
       </c>
       <c r="K2" t="n">
-        <v>17697996.8</v>
+        <v>17862860.8</v>
       </c>
       <c r="L2" t="n">
-        <v>17705369.6</v>
+        <v>17880473.6</v>
       </c>
       <c r="M2" t="n">
-        <v>17705369.6</v>
+        <v>17880473.6</v>
       </c>
       <c r="N2" t="n">
-        <v>17705369.6</v>
+        <v>17880473.6</v>
       </c>
       <c r="O2" t="n">
-        <v>17705369.6</v>
+        <v>17880473.6</v>
       </c>
       <c r="P2" t="n">
         <v>104</v>
@@ -602,34 +602,34 @@
         <v>20</v>
       </c>
       <c r="F3" t="n">
-        <v>0.001268029</v>
+        <v>0.001342213</v>
       </c>
       <c r="G3" t="n">
-        <v>0.006803977</v>
+        <v>0.006590188</v>
       </c>
       <c r="H3" t="n">
-        <v>0.057313204</v>
+        <v>0.053138041</v>
       </c>
       <c r="I3" t="n">
-        <v>0.016080987</v>
+        <v>0.015073466</v>
       </c>
       <c r="J3" t="n">
-        <v>0.051618648</v>
+        <v>0.047799468</v>
       </c>
       <c r="K3" t="n">
-        <v>17719296</v>
+        <v>18011340.8</v>
       </c>
       <c r="L3" t="n">
-        <v>17719296</v>
+        <v>18033868.8</v>
       </c>
       <c r="M3" t="n">
-        <v>17719296</v>
+        <v>18033868.8</v>
       </c>
       <c r="N3" t="n">
-        <v>17719296</v>
+        <v>18033868.8</v>
       </c>
       <c r="O3" t="n">
-        <v>17719296</v>
+        <v>18033868.8</v>
       </c>
       <c r="P3" t="n">
         <v>104</v>
@@ -660,34 +660,34 @@
         <v>20</v>
       </c>
       <c r="F4" t="n">
-        <v>0.001735902</v>
+        <v>0.001752901</v>
       </c>
       <c r="G4" t="n">
-        <v>0.008932769</v>
+        <v>0.008257520000000001</v>
       </c>
       <c r="H4" t="n">
-        <v>0.07029516700000001</v>
+        <v>0.06799864799999999</v>
       </c>
       <c r="I4" t="n">
-        <v>0.019600642</v>
+        <v>0.018870747</v>
       </c>
       <c r="J4" t="n">
-        <v>0.062259114</v>
+        <v>0.061162889</v>
       </c>
       <c r="K4" t="n">
-        <v>17719296</v>
+        <v>18051481.6</v>
       </c>
       <c r="L4" t="n">
-        <v>17719296</v>
+        <v>18082201.6</v>
       </c>
       <c r="M4" t="n">
-        <v>17719296</v>
+        <v>18082201.6</v>
       </c>
       <c r="N4" t="n">
-        <v>17719296</v>
+        <v>18082201.6</v>
       </c>
       <c r="O4" t="n">
-        <v>17719296</v>
+        <v>18082201.6</v>
       </c>
       <c r="P4" t="n">
         <v>104</v>
@@ -718,34 +718,34 @@
         <v>20</v>
       </c>
       <c r="F5" t="n">
-        <v>0.001493967</v>
+        <v>0.001339746</v>
       </c>
       <c r="G5" t="n">
-        <v>0.013495505</v>
+        <v>0.012808669</v>
       </c>
       <c r="H5" t="n">
-        <v>0.013662255</v>
+        <v>0.012828958</v>
       </c>
       <c r="I5" t="n">
-        <v>0.016206777</v>
+        <v>0.015483344</v>
       </c>
       <c r="J5" t="n">
-        <v>0.012144637</v>
+        <v>0.01135689</v>
       </c>
       <c r="K5" t="n">
-        <v>17719296</v>
+        <v>18048000</v>
       </c>
       <c r="L5" t="n">
-        <v>17719296</v>
+        <v>18058649.6</v>
       </c>
       <c r="M5" t="n">
-        <v>17719296</v>
+        <v>18058649.6</v>
       </c>
       <c r="N5" t="n">
-        <v>17719296</v>
+        <v>18058649.6</v>
       </c>
       <c r="O5" t="n">
-        <v>17719296</v>
+        <v>18058649.6</v>
       </c>
       <c r="P5" t="n">
         <v>104</v>
@@ -776,34 +776,34 @@
         <v>20</v>
       </c>
       <c r="F6" t="n">
-        <v>0.001771438</v>
+        <v>0.001457369</v>
       </c>
       <c r="G6" t="n">
-        <v>0.013549173</v>
+        <v>0.013026953</v>
       </c>
       <c r="H6" t="n">
-        <v>0.01348021</v>
+        <v>0.013009691</v>
       </c>
       <c r="I6" t="n">
-        <v>0.015895617</v>
+        <v>0.01497395</v>
       </c>
       <c r="J6" t="n">
-        <v>0.012124336</v>
+        <v>0.011340356</v>
       </c>
       <c r="K6" t="n">
-        <v>17719296</v>
+        <v>18073600</v>
       </c>
       <c r="L6" t="n">
-        <v>17719296</v>
+        <v>18085888</v>
       </c>
       <c r="M6" t="n">
-        <v>17719296</v>
+        <v>18085888</v>
       </c>
       <c r="N6" t="n">
-        <v>17719296</v>
+        <v>18085888</v>
       </c>
       <c r="O6" t="n">
-        <v>17719296</v>
+        <v>18086092.8</v>
       </c>
       <c r="P6" t="n">
         <v>104</v>
@@ -834,34 +834,34 @@
         <v>20</v>
       </c>
       <c r="F7" t="n">
-        <v>0.001605809</v>
+        <v>0.001485217</v>
       </c>
       <c r="G7" t="n">
-        <v>0.014143431</v>
+        <v>0.012365496</v>
       </c>
       <c r="H7" t="n">
-        <v>0.01392262</v>
+        <v>0.012685955</v>
       </c>
       <c r="I7" t="n">
-        <v>0.016678429</v>
+        <v>0.015331924</v>
       </c>
       <c r="J7" t="n">
-        <v>0.012673652</v>
+        <v>0.011583722</v>
       </c>
       <c r="K7" t="n">
-        <v>17719296</v>
+        <v>18107392</v>
       </c>
       <c r="L7" t="n">
-        <v>17719296</v>
+        <v>18119065.6</v>
       </c>
       <c r="M7" t="n">
-        <v>17719296</v>
+        <v>18119065.6</v>
       </c>
       <c r="N7" t="n">
-        <v>17719296</v>
+        <v>18119065.6</v>
       </c>
       <c r="O7" t="n">
-        <v>17719296</v>
+        <v>18119065.6</v>
       </c>
       <c r="P7" t="n">
         <v>104</v>
@@ -892,34 +892,34 @@
         <v>20</v>
       </c>
       <c r="F8" t="n">
-        <v>0.001595843</v>
+        <v>0.001735163</v>
       </c>
       <c r="G8" t="n">
-        <v>0.013463414</v>
+        <v>0.012635648</v>
       </c>
       <c r="H8" t="n">
-        <v>0.01343478</v>
+        <v>0.012503338</v>
       </c>
       <c r="I8" t="n">
-        <v>0.015948975</v>
+        <v>0.015144122</v>
       </c>
       <c r="J8" t="n">
-        <v>0.012162435</v>
+        <v>0.011434162</v>
       </c>
       <c r="K8" t="n">
-        <v>17852416</v>
+        <v>18127462.4</v>
       </c>
       <c r="L8" t="n">
-        <v>17852416</v>
+        <v>18130739.2</v>
       </c>
       <c r="M8" t="n">
-        <v>17852416</v>
+        <v>18130739.2</v>
       </c>
       <c r="N8" t="n">
-        <v>17852416</v>
+        <v>18130739.2</v>
       </c>
       <c r="O8" t="n">
-        <v>17852416</v>
+        <v>18130739.2</v>
       </c>
       <c r="P8" t="n">
         <v>104</v>
@@ -950,34 +950,34 @@
         <v>20</v>
       </c>
       <c r="F9" t="n">
-        <v>0.001764619</v>
+        <v>0.001518691</v>
       </c>
       <c r="G9" t="n">
-        <v>0.013964617</v>
+        <v>0.012902594</v>
       </c>
       <c r="H9" t="n">
-        <v>0.014169383</v>
+        <v>0.013267255</v>
       </c>
       <c r="I9" t="n">
-        <v>0.016899502</v>
+        <v>0.015676844</v>
       </c>
       <c r="J9" t="n">
-        <v>0.012685394</v>
+        <v>0.011985111</v>
       </c>
       <c r="K9" t="n">
-        <v>17985536</v>
+        <v>18153267.2</v>
       </c>
       <c r="L9" t="n">
-        <v>17985536</v>
+        <v>18158182.4</v>
       </c>
       <c r="M9" t="n">
-        <v>17985536</v>
+        <v>18158182.4</v>
       </c>
       <c r="N9" t="n">
-        <v>17985536</v>
+        <v>18158182.4</v>
       </c>
       <c r="O9" t="n">
-        <v>17985536</v>
+        <v>18158182.4</v>
       </c>
       <c r="P9" t="n">
         <v>104</v>
@@ -1008,34 +1008,34 @@
         <v>20</v>
       </c>
       <c r="F10" t="n">
-        <v>0.001575935</v>
+        <v>0.001741815</v>
       </c>
       <c r="G10" t="n">
-        <v>0.013432562</v>
+        <v>0.013494408</v>
       </c>
       <c r="H10" t="n">
-        <v>0.013294375</v>
+        <v>0.013330543</v>
       </c>
       <c r="I10" t="n">
-        <v>0.015791869</v>
+        <v>0.015648639</v>
       </c>
       <c r="J10" t="n">
-        <v>0.012216055</v>
+        <v>0.011693156</v>
       </c>
       <c r="K10" t="n">
-        <v>17985536</v>
+        <v>18180915.2</v>
       </c>
       <c r="L10" t="n">
-        <v>17985536</v>
+        <v>18187059.2</v>
       </c>
       <c r="M10" t="n">
-        <v>17985536</v>
+        <v>18187264</v>
       </c>
       <c r="N10" t="n">
-        <v>17985536</v>
+        <v>18187264</v>
       </c>
       <c r="O10" t="n">
-        <v>17985536</v>
+        <v>18187264</v>
       </c>
       <c r="P10" t="n">
         <v>104</v>

--- a/SchemeIBMETR/SchemeIBMECH.xlsx
+++ b/SchemeIBMETR/SchemeIBMECH.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R10"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -511,15 +511,25 @@
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
+          <t>mpk (B)</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>msk (B)</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>ek_sigma (B)</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>dk_rho (B)</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>CT (B)</t>
         </is>
@@ -544,42 +554,48 @@
         <v>20</v>
       </c>
       <c r="F2" t="n">
-        <v>0.000815654</v>
+        <v>0.000845516</v>
       </c>
       <c r="G2" t="n">
-        <v>0.004573405</v>
+        <v>0.004739368</v>
       </c>
       <c r="H2" t="n">
-        <v>0.040384626</v>
+        <v>0.041254258</v>
       </c>
       <c r="I2" t="n">
-        <v>0.011084151</v>
+        <v>0.011692178</v>
       </c>
       <c r="J2" t="n">
-        <v>0.036140811</v>
+        <v>0.038995028</v>
       </c>
       <c r="K2" t="n">
-        <v>17862860.8</v>
+        <v>17720320</v>
       </c>
       <c r="L2" t="n">
-        <v>17880473.6</v>
+        <v>17781145.6</v>
       </c>
       <c r="M2" t="n">
-        <v>17880473.6</v>
+        <v>17781145.6</v>
       </c>
       <c r="N2" t="n">
-        <v>17880473.6</v>
+        <v>17781145.6</v>
       </c>
       <c r="O2" t="n">
-        <v>17880473.6</v>
+        <v>17781145.6</v>
       </c>
       <c r="P2" t="n">
+        <v>72</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>120</v>
+      </c>
+      <c r="R2" t="n">
         <v>104</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="S2" t="n">
         <v>64</v>
       </c>
-      <c r="R2" t="n">
+      <c r="T2" t="n">
         <v>56</v>
       </c>
     </row>
@@ -602,42 +618,48 @@
         <v>20</v>
       </c>
       <c r="F3" t="n">
-        <v>0.001342213</v>
+        <v>0.001254928</v>
       </c>
       <c r="G3" t="n">
-        <v>0.006590188</v>
+        <v>0.006663442</v>
       </c>
       <c r="H3" t="n">
-        <v>0.053138041</v>
+        <v>0.056126487</v>
       </c>
       <c r="I3" t="n">
-        <v>0.015073466</v>
+        <v>0.015514946</v>
       </c>
       <c r="J3" t="n">
-        <v>0.047799468</v>
+        <v>0.049918318</v>
       </c>
       <c r="K3" t="n">
-        <v>18011340.8</v>
+        <v>17891328</v>
       </c>
       <c r="L3" t="n">
-        <v>18033868.8</v>
+        <v>17898700.8</v>
       </c>
       <c r="M3" t="n">
-        <v>18033868.8</v>
+        <v>17898700.8</v>
       </c>
       <c r="N3" t="n">
-        <v>18033868.8</v>
+        <v>17898700.8</v>
       </c>
       <c r="O3" t="n">
-        <v>18033868.8</v>
+        <v>17898700.8</v>
       </c>
       <c r="P3" t="n">
+        <v>72</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>120</v>
+      </c>
+      <c r="R3" t="n">
         <v>104</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="S3" t="n">
         <v>64</v>
       </c>
-      <c r="R3" t="n">
+      <c r="T3" t="n">
         <v>56</v>
       </c>
     </row>
@@ -660,42 +682,48 @@
         <v>20</v>
       </c>
       <c r="F4" t="n">
-        <v>0.001752901</v>
+        <v>0.00150317</v>
       </c>
       <c r="G4" t="n">
-        <v>0.008257520000000001</v>
+        <v>0.008758724000000001</v>
       </c>
       <c r="H4" t="n">
-        <v>0.06799864799999999</v>
+        <v>0.069674861</v>
       </c>
       <c r="I4" t="n">
-        <v>0.018870747</v>
+        <v>0.019725907</v>
       </c>
       <c r="J4" t="n">
-        <v>0.061162889</v>
+        <v>0.063436031</v>
       </c>
       <c r="K4" t="n">
-        <v>18051481.6</v>
+        <v>17883136</v>
       </c>
       <c r="L4" t="n">
-        <v>18082201.6</v>
+        <v>17883136</v>
       </c>
       <c r="M4" t="n">
-        <v>18082201.6</v>
+        <v>17883136</v>
       </c>
       <c r="N4" t="n">
-        <v>18082201.6</v>
+        <v>17883136</v>
       </c>
       <c r="O4" t="n">
-        <v>18082201.6</v>
+        <v>17883136</v>
       </c>
       <c r="P4" t="n">
+        <v>72</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>120</v>
+      </c>
+      <c r="R4" t="n">
         <v>104</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="S4" t="n">
         <v>64</v>
       </c>
-      <c r="R4" t="n">
+      <c r="T4" t="n">
         <v>56</v>
       </c>
     </row>
@@ -706,7 +734,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>128</v>
+        <v>512</v>
       </c>
       <c r="C5" t="n">
         <v>20</v>
@@ -718,332 +746,48 @@
         <v>20</v>
       </c>
       <c r="F5" t="n">
-        <v>0.001339746</v>
+        <v>0.001779795</v>
       </c>
       <c r="G5" t="n">
-        <v>0.012808669</v>
+        <v>0.014295721</v>
       </c>
       <c r="H5" t="n">
-        <v>0.012828958</v>
+        <v>0.014529443</v>
       </c>
       <c r="I5" t="n">
-        <v>0.015483344</v>
+        <v>0.017212176</v>
       </c>
       <c r="J5" t="n">
-        <v>0.01135689</v>
+        <v>0.012669945</v>
       </c>
       <c r="K5" t="n">
-        <v>18048000</v>
+        <v>17883136</v>
       </c>
       <c r="L5" t="n">
-        <v>18058649.6</v>
+        <v>17883136</v>
       </c>
       <c r="M5" t="n">
-        <v>18058649.6</v>
+        <v>17883136</v>
       </c>
       <c r="N5" t="n">
-        <v>18058649.6</v>
+        <v>17883136</v>
       </c>
       <c r="O5" t="n">
-        <v>18058649.6</v>
+        <v>17883136</v>
       </c>
       <c r="P5" t="n">
+        <v>72</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>120</v>
+      </c>
+      <c r="R5" t="n">
         <v>104</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="S5" t="n">
         <v>64</v>
       </c>
-      <c r="R5" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>SS512</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>160</v>
-      </c>
-      <c r="C6" t="n">
-        <v>20</v>
-      </c>
-      <c r="D6" t="n">
-        <v>20</v>
-      </c>
-      <c r="E6" t="n">
-        <v>20</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.001457369</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.013026953</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.013009691</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.01497395</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.011340356</v>
-      </c>
-      <c r="K6" t="n">
-        <v>18073600</v>
-      </c>
-      <c r="L6" t="n">
-        <v>18085888</v>
-      </c>
-      <c r="M6" t="n">
-        <v>18085888</v>
-      </c>
-      <c r="N6" t="n">
-        <v>18085888</v>
-      </c>
-      <c r="O6" t="n">
-        <v>18086092.8</v>
-      </c>
-      <c r="P6" t="n">
-        <v>104</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>64</v>
-      </c>
-      <c r="R6" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>SS512</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>224</v>
-      </c>
-      <c r="C7" t="n">
-        <v>20</v>
-      </c>
-      <c r="D7" t="n">
-        <v>20</v>
-      </c>
-      <c r="E7" t="n">
-        <v>20</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.001485217</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.012365496</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0.012685955</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0.015331924</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.011583722</v>
-      </c>
-      <c r="K7" t="n">
-        <v>18107392</v>
-      </c>
-      <c r="L7" t="n">
-        <v>18119065.6</v>
-      </c>
-      <c r="M7" t="n">
-        <v>18119065.6</v>
-      </c>
-      <c r="N7" t="n">
-        <v>18119065.6</v>
-      </c>
-      <c r="O7" t="n">
-        <v>18119065.6</v>
-      </c>
-      <c r="P7" t="n">
-        <v>104</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>64</v>
-      </c>
-      <c r="R7" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>SS512</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>256</v>
-      </c>
-      <c r="C8" t="n">
-        <v>20</v>
-      </c>
-      <c r="D8" t="n">
-        <v>20</v>
-      </c>
-      <c r="E8" t="n">
-        <v>20</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.001735163</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.012635648</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0.012503338</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0.015144122</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.011434162</v>
-      </c>
-      <c r="K8" t="n">
-        <v>18127462.4</v>
-      </c>
-      <c r="L8" t="n">
-        <v>18130739.2</v>
-      </c>
-      <c r="M8" t="n">
-        <v>18130739.2</v>
-      </c>
-      <c r="N8" t="n">
-        <v>18130739.2</v>
-      </c>
-      <c r="O8" t="n">
-        <v>18130739.2</v>
-      </c>
-      <c r="P8" t="n">
-        <v>104</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>64</v>
-      </c>
-      <c r="R8" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>SS512</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>384</v>
-      </c>
-      <c r="C9" t="n">
-        <v>20</v>
-      </c>
-      <c r="D9" t="n">
-        <v>20</v>
-      </c>
-      <c r="E9" t="n">
-        <v>20</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.001518691</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.012902594</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0.013267255</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0.015676844</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.011985111</v>
-      </c>
-      <c r="K9" t="n">
-        <v>18153267.2</v>
-      </c>
-      <c r="L9" t="n">
-        <v>18158182.4</v>
-      </c>
-      <c r="M9" t="n">
-        <v>18158182.4</v>
-      </c>
-      <c r="N9" t="n">
-        <v>18158182.4</v>
-      </c>
-      <c r="O9" t="n">
-        <v>18158182.4</v>
-      </c>
-      <c r="P9" t="n">
-        <v>104</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>64</v>
-      </c>
-      <c r="R9" t="n">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>SS512</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>512</v>
-      </c>
-      <c r="C10" t="n">
-        <v>20</v>
-      </c>
-      <c r="D10" t="n">
-        <v>20</v>
-      </c>
-      <c r="E10" t="n">
-        <v>20</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0.001741815</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0.013494408</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0.013330543</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0.015648639</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.011693156</v>
-      </c>
-      <c r="K10" t="n">
-        <v>18180915.2</v>
-      </c>
-      <c r="L10" t="n">
-        <v>18187059.2</v>
-      </c>
-      <c r="M10" t="n">
-        <v>18187264</v>
-      </c>
-      <c r="N10" t="n">
-        <v>18187264</v>
-      </c>
-      <c r="O10" t="n">
-        <v>18187264</v>
-      </c>
-      <c r="P10" t="n">
-        <v>104</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>64</v>
-      </c>
-      <c r="R10" t="n">
+      <c r="T5" t="n">
         <v>56</v>
       </c>
     </row>

--- a/SchemeIBMETR/SchemeIBMECH.xlsx
+++ b/SchemeIBMETR/SchemeIBMECH.xlsx
@@ -554,34 +554,34 @@
         <v>20</v>
       </c>
       <c r="F2" t="n">
-        <v>0.000845516</v>
+        <v>0.016539884</v>
       </c>
       <c r="G2" t="n">
-        <v>0.004739368</v>
+        <v>0.004438579</v>
       </c>
       <c r="H2" t="n">
-        <v>0.041254258</v>
+        <v>0.037715828</v>
       </c>
       <c r="I2" t="n">
-        <v>0.011692178</v>
+        <v>0.010635829</v>
       </c>
       <c r="J2" t="n">
-        <v>0.038995028</v>
+        <v>0.034598112</v>
       </c>
       <c r="K2" t="n">
-        <v>17720320</v>
+        <v>17763737.6</v>
       </c>
       <c r="L2" t="n">
-        <v>17781145.6</v>
+        <v>17821286.4</v>
       </c>
       <c r="M2" t="n">
-        <v>17781145.6</v>
+        <v>17821286.4</v>
       </c>
       <c r="N2" t="n">
-        <v>17781145.6</v>
+        <v>17821286.4</v>
       </c>
       <c r="O2" t="n">
-        <v>17781145.6</v>
+        <v>17821286.4</v>
       </c>
       <c r="P2" t="n">
         <v>72</v>
@@ -618,34 +618,34 @@
         <v>20</v>
       </c>
       <c r="F3" t="n">
-        <v>0.001254928</v>
+        <v>0.02379992</v>
       </c>
       <c r="G3" t="n">
-        <v>0.006663442</v>
+        <v>0.006638563</v>
       </c>
       <c r="H3" t="n">
-        <v>0.056126487</v>
+        <v>0.052596617</v>
       </c>
       <c r="I3" t="n">
-        <v>0.015514946</v>
+        <v>0.014512479</v>
       </c>
       <c r="J3" t="n">
-        <v>0.049918318</v>
+        <v>0.047634792</v>
       </c>
       <c r="K3" t="n">
-        <v>17891328</v>
+        <v>17833984</v>
       </c>
       <c r="L3" t="n">
-        <v>17898700.8</v>
+        <v>17833984</v>
       </c>
       <c r="M3" t="n">
-        <v>17898700.8</v>
+        <v>17833984</v>
       </c>
       <c r="N3" t="n">
-        <v>17898700.8</v>
+        <v>17833984</v>
       </c>
       <c r="O3" t="n">
-        <v>17898700.8</v>
+        <v>17833984</v>
       </c>
       <c r="P3" t="n">
         <v>72</v>
@@ -682,34 +682,34 @@
         <v>20</v>
       </c>
       <c r="F4" t="n">
-        <v>0.00150317</v>
+        <v>0.029288816</v>
       </c>
       <c r="G4" t="n">
-        <v>0.008758724000000001</v>
+        <v>0.008419441999999999</v>
       </c>
       <c r="H4" t="n">
-        <v>0.069674861</v>
+        <v>0.06644910599999999</v>
       </c>
       <c r="I4" t="n">
-        <v>0.019725907</v>
+        <v>0.018539512</v>
       </c>
       <c r="J4" t="n">
-        <v>0.063436031</v>
+        <v>0.059226084</v>
       </c>
       <c r="K4" t="n">
-        <v>17883136</v>
+        <v>17833984</v>
       </c>
       <c r="L4" t="n">
-        <v>17883136</v>
+        <v>17833984</v>
       </c>
       <c r="M4" t="n">
-        <v>17883136</v>
+        <v>17833984</v>
       </c>
       <c r="N4" t="n">
-        <v>17883136</v>
+        <v>17833984</v>
       </c>
       <c r="O4" t="n">
-        <v>17883136</v>
+        <v>17833984</v>
       </c>
       <c r="P4" t="n">
         <v>72</v>
@@ -746,34 +746,34 @@
         <v>20</v>
       </c>
       <c r="F5" t="n">
-        <v>0.001779795</v>
+        <v>0.031997061</v>
       </c>
       <c r="G5" t="n">
-        <v>0.014295721</v>
+        <v>0.013462865</v>
       </c>
       <c r="H5" t="n">
-        <v>0.014529443</v>
+        <v>0.013463843</v>
       </c>
       <c r="I5" t="n">
-        <v>0.017212176</v>
+        <v>0.015879333</v>
       </c>
       <c r="J5" t="n">
-        <v>0.012669945</v>
+        <v>0.012109852</v>
       </c>
       <c r="K5" t="n">
-        <v>17883136</v>
+        <v>17833984</v>
       </c>
       <c r="L5" t="n">
-        <v>17883136</v>
+        <v>17833984</v>
       </c>
       <c r="M5" t="n">
-        <v>17883136</v>
+        <v>17833984</v>
       </c>
       <c r="N5" t="n">
-        <v>17883136</v>
+        <v>17833984</v>
       </c>
       <c r="O5" t="n">
-        <v>17883136</v>
+        <v>17833984</v>
       </c>
       <c r="P5" t="n">
         <v>72</v>

--- a/SchemeIBMETR/SchemeIBMECH.xlsx
+++ b/SchemeIBMETR/SchemeIBMECH.xlsx
@@ -554,34 +554,34 @@
         <v>20</v>
       </c>
       <c r="F2" t="n">
-        <v>0.016539884</v>
+        <v>0.021508948</v>
       </c>
       <c r="G2" t="n">
-        <v>0.004438579</v>
+        <v>0.005617496</v>
       </c>
       <c r="H2" t="n">
-        <v>0.037715828</v>
+        <v>0.04631507</v>
       </c>
       <c r="I2" t="n">
-        <v>0.010635829</v>
+        <v>0.013185518</v>
       </c>
       <c r="J2" t="n">
-        <v>0.034598112</v>
+        <v>0.041973617</v>
       </c>
       <c r="K2" t="n">
-        <v>17763737.6</v>
+        <v>17593139.2</v>
       </c>
       <c r="L2" t="n">
-        <v>17821286.4</v>
+        <v>17605836.8</v>
       </c>
       <c r="M2" t="n">
-        <v>17821286.4</v>
+        <v>17651507.2</v>
       </c>
       <c r="N2" t="n">
-        <v>17821286.4</v>
+        <v>17651507.2</v>
       </c>
       <c r="O2" t="n">
-        <v>17821286.4</v>
+        <v>17651507.2</v>
       </c>
       <c r="P2" t="n">
         <v>72</v>
@@ -618,34 +618,34 @@
         <v>20</v>
       </c>
       <c r="F3" t="n">
-        <v>0.02379992</v>
+        <v>0.027917086</v>
       </c>
       <c r="G3" t="n">
-        <v>0.006638563</v>
+        <v>0.007966506999999999</v>
       </c>
       <c r="H3" t="n">
-        <v>0.052596617</v>
+        <v>0.060720587</v>
       </c>
       <c r="I3" t="n">
-        <v>0.014512479</v>
+        <v>0.017073697</v>
       </c>
       <c r="J3" t="n">
-        <v>0.047634792</v>
+        <v>0.054717357</v>
       </c>
       <c r="K3" t="n">
-        <v>17833984</v>
+        <v>17773158.4</v>
       </c>
       <c r="L3" t="n">
-        <v>17833984</v>
+        <v>17781145.6</v>
       </c>
       <c r="M3" t="n">
-        <v>17833984</v>
+        <v>17781145.6</v>
       </c>
       <c r="N3" t="n">
-        <v>17833984</v>
+        <v>17781145.6</v>
       </c>
       <c r="O3" t="n">
-        <v>17833984</v>
+        <v>17781145.6</v>
       </c>
       <c r="P3" t="n">
         <v>72</v>
@@ -682,34 +682,34 @@
         <v>20</v>
       </c>
       <c r="F4" t="n">
-        <v>0.029288816</v>
+        <v>0.034594638</v>
       </c>
       <c r="G4" t="n">
-        <v>0.008419441999999999</v>
+        <v>0.009643995000000001</v>
       </c>
       <c r="H4" t="n">
-        <v>0.06644910599999999</v>
+        <v>0.077748757</v>
       </c>
       <c r="I4" t="n">
-        <v>0.018539512</v>
+        <v>0.021694595</v>
       </c>
       <c r="J4" t="n">
-        <v>0.059226084</v>
+        <v>0.06805862999999999</v>
       </c>
       <c r="K4" t="n">
-        <v>17833984</v>
+        <v>17793024</v>
       </c>
       <c r="L4" t="n">
-        <v>17833984</v>
+        <v>17795686.4</v>
       </c>
       <c r="M4" t="n">
-        <v>17833984</v>
+        <v>17795686.4</v>
       </c>
       <c r="N4" t="n">
-        <v>17833984</v>
+        <v>17795686.4</v>
       </c>
       <c r="O4" t="n">
-        <v>17833984</v>
+        <v>17795686.4</v>
       </c>
       <c r="P4" t="n">
         <v>72</v>
@@ -746,34 +746,34 @@
         <v>20</v>
       </c>
       <c r="F5" t="n">
-        <v>0.031997061</v>
+        <v>0.035898093</v>
       </c>
       <c r="G5" t="n">
-        <v>0.013462865</v>
+        <v>0.01515607</v>
       </c>
       <c r="H5" t="n">
-        <v>0.013463843</v>
+        <v>0.015319404</v>
       </c>
       <c r="I5" t="n">
-        <v>0.015879333</v>
+        <v>0.017702049</v>
       </c>
       <c r="J5" t="n">
-        <v>0.012109852</v>
+        <v>0.013412073</v>
       </c>
       <c r="K5" t="n">
-        <v>17833984</v>
+        <v>17828454.4</v>
       </c>
       <c r="L5" t="n">
-        <v>17833984</v>
+        <v>17834393.6</v>
       </c>
       <c r="M5" t="n">
-        <v>17833984</v>
+        <v>17834393.6</v>
       </c>
       <c r="N5" t="n">
-        <v>17833984</v>
+        <v>17834393.6</v>
       </c>
       <c r="O5" t="n">
-        <v>17833984</v>
+        <v>17834393.6</v>
       </c>
       <c r="P5" t="n">
         <v>72</v>

--- a/SchemeIBMETR/SchemeIBMECH.xlsx
+++ b/SchemeIBMETR/SchemeIBMECH.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:X6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -511,25 +511,45 @@
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
+          <t>elementOfZR (B)</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>elementOfG1 (B)</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>elementOfG2 (B)</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>elementOfGT (B)</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
           <t>mpk (B)</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>msk (B)</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>ek_sigma (B)</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>dk_rho (B)</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>CT (B)</t>
         </is>
@@ -554,48 +574,60 @@
         <v>20</v>
       </c>
       <c r="F2" t="n">
-        <v>0.021508948</v>
+        <v>0.0187109</v>
       </c>
       <c r="G2" t="n">
-        <v>0.005617496</v>
+        <v>0.004954958</v>
       </c>
       <c r="H2" t="n">
-        <v>0.04631507</v>
+        <v>0.042653713</v>
       </c>
       <c r="I2" t="n">
-        <v>0.013185518</v>
+        <v>0.011933642</v>
       </c>
       <c r="J2" t="n">
-        <v>0.041973617</v>
+        <v>0.039361332</v>
       </c>
       <c r="K2" t="n">
-        <v>17593139.2</v>
+        <v>17791795.2</v>
       </c>
       <c r="L2" t="n">
-        <v>17605836.8</v>
+        <v>17856921.6</v>
       </c>
       <c r="M2" t="n">
-        <v>17651507.2</v>
+        <v>17856921.6</v>
       </c>
       <c r="N2" t="n">
-        <v>17651507.2</v>
+        <v>17856921.6</v>
       </c>
       <c r="O2" t="n">
-        <v>17651507.2</v>
+        <v>17856921.6</v>
       </c>
       <c r="P2" t="n">
         <v>72</v>
       </c>
       <c r="Q2" t="n">
+        <v>72</v>
+      </c>
+      <c r="R2" t="n">
+        <v>72</v>
+      </c>
+      <c r="S2" t="n">
+        <v>72</v>
+      </c>
+      <c r="T2" t="n">
+        <v>72</v>
+      </c>
+      <c r="U2" t="n">
         <v>120</v>
       </c>
-      <c r="R2" t="n">
+      <c r="V2" t="n">
         <v>104</v>
       </c>
-      <c r="S2" t="n">
+      <c r="W2" t="n">
         <v>64</v>
       </c>
-      <c r="T2" t="n">
+      <c r="X2" t="n">
         <v>56</v>
       </c>
     </row>
@@ -618,48 +650,60 @@
         <v>20</v>
       </c>
       <c r="F3" t="n">
-        <v>0.027917086</v>
+        <v>0.024683555</v>
       </c>
       <c r="G3" t="n">
-        <v>0.007966506999999999</v>
+        <v>0.006893011</v>
       </c>
       <c r="H3" t="n">
-        <v>0.060720587</v>
+        <v>0.055782005</v>
       </c>
       <c r="I3" t="n">
-        <v>0.017073697</v>
+        <v>0.015527114</v>
       </c>
       <c r="J3" t="n">
-        <v>0.054717357</v>
+        <v>0.050822745</v>
       </c>
       <c r="K3" t="n">
-        <v>17773158.4</v>
+        <v>17940480</v>
       </c>
       <c r="L3" t="n">
-        <v>17781145.6</v>
+        <v>17940480</v>
       </c>
       <c r="M3" t="n">
-        <v>17781145.6</v>
+        <v>17940480</v>
       </c>
       <c r="N3" t="n">
-        <v>17781145.6</v>
+        <v>17940480</v>
       </c>
       <c r="O3" t="n">
-        <v>17781145.6</v>
+        <v>17940480</v>
       </c>
       <c r="P3" t="n">
         <v>72</v>
       </c>
       <c r="Q3" t="n">
+        <v>72</v>
+      </c>
+      <c r="R3" t="n">
+        <v>72</v>
+      </c>
+      <c r="S3" t="n">
+        <v>72</v>
+      </c>
+      <c r="T3" t="n">
+        <v>72</v>
+      </c>
+      <c r="U3" t="n">
         <v>120</v>
       </c>
-      <c r="R3" t="n">
+      <c r="V3" t="n">
         <v>104</v>
       </c>
-      <c r="S3" t="n">
+      <c r="W3" t="n">
         <v>64</v>
       </c>
-      <c r="T3" t="n">
+      <c r="X3" t="n">
         <v>56</v>
       </c>
     </row>
@@ -682,55 +726,67 @@
         <v>20</v>
       </c>
       <c r="F4" t="n">
-        <v>0.034594638</v>
+        <v>0.030729394</v>
       </c>
       <c r="G4" t="n">
-        <v>0.009643995000000001</v>
+        <v>0.008651424</v>
       </c>
       <c r="H4" t="n">
-        <v>0.077748757</v>
+        <v>0.071979976</v>
       </c>
       <c r="I4" t="n">
-        <v>0.021694595</v>
+        <v>0.020128286</v>
       </c>
       <c r="J4" t="n">
-        <v>0.06805862999999999</v>
+        <v>0.064134988</v>
       </c>
       <c r="K4" t="n">
-        <v>17793024</v>
+        <v>17940480</v>
       </c>
       <c r="L4" t="n">
-        <v>17795686.4</v>
+        <v>17940480</v>
       </c>
       <c r="M4" t="n">
-        <v>17795686.4</v>
+        <v>17940480</v>
       </c>
       <c r="N4" t="n">
-        <v>17795686.4</v>
+        <v>17940480</v>
       </c>
       <c r="O4" t="n">
-        <v>17795686.4</v>
+        <v>17940480</v>
       </c>
       <c r="P4" t="n">
         <v>72</v>
       </c>
       <c r="Q4" t="n">
+        <v>72</v>
+      </c>
+      <c r="R4" t="n">
+        <v>72</v>
+      </c>
+      <c r="S4" t="n">
+        <v>72</v>
+      </c>
+      <c r="T4" t="n">
+        <v>72</v>
+      </c>
+      <c r="U4" t="n">
         <v>120</v>
       </c>
-      <c r="R4" t="n">
+      <c r="V4" t="n">
         <v>104</v>
       </c>
-      <c r="S4" t="n">
+      <c r="W4" t="n">
         <v>64</v>
       </c>
-      <c r="T4" t="n">
+      <c r="X4" t="n">
         <v>56</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>SS512</t>
+          <t>BN254</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -746,48 +802,136 @@
         <v>20</v>
       </c>
       <c r="F5" t="n">
-        <v>0.035898093</v>
+        <v>0.05503243</v>
       </c>
       <c r="G5" t="n">
-        <v>0.01515607</v>
+        <v>0.011886919</v>
       </c>
       <c r="H5" t="n">
-        <v>0.015319404</v>
+        <v>0.024308474</v>
       </c>
       <c r="I5" t="n">
-        <v>0.017702049</v>
+        <v>0.042191016</v>
       </c>
       <c r="J5" t="n">
-        <v>0.013412073</v>
+        <v>0.167895779</v>
       </c>
       <c r="K5" t="n">
-        <v>17828454.4</v>
+        <v>18032435.2</v>
       </c>
       <c r="L5" t="n">
-        <v>17834393.6</v>
+        <v>18041036.8</v>
       </c>
       <c r="M5" t="n">
-        <v>17834393.6</v>
+        <v>18041036.8</v>
       </c>
       <c r="N5" t="n">
-        <v>17834393.6</v>
+        <v>18041036.8</v>
       </c>
       <c r="O5" t="n">
-        <v>17834393.6</v>
+        <v>18041036.8</v>
       </c>
       <c r="P5" t="n">
         <v>72</v>
       </c>
       <c r="Q5" t="n">
+        <v>72</v>
+      </c>
+      <c r="R5" t="n">
+        <v>72</v>
+      </c>
+      <c r="S5" t="n">
+        <v>72</v>
+      </c>
+      <c r="T5" t="n">
+        <v>72</v>
+      </c>
+      <c r="U5" t="n">
         <v>120</v>
       </c>
-      <c r="R5" t="n">
+      <c r="V5" t="n">
         <v>104</v>
       </c>
-      <c r="S5" t="n">
+      <c r="W5" t="n">
         <v>64</v>
       </c>
-      <c r="T5" t="n">
+      <c r="X5" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>SS512</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>512</v>
+      </c>
+      <c r="C6" t="n">
+        <v>20</v>
+      </c>
+      <c r="D6" t="n">
+        <v>20</v>
+      </c>
+      <c r="E6" t="n">
+        <v>20</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.034526771</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.014505165</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.014353428</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.016928922</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.012905557</v>
+      </c>
+      <c r="K6" t="n">
+        <v>18120704</v>
+      </c>
+      <c r="L6" t="n">
+        <v>18120704</v>
+      </c>
+      <c r="M6" t="n">
+        <v>18120704</v>
+      </c>
+      <c r="N6" t="n">
+        <v>18120704</v>
+      </c>
+      <c r="O6" t="n">
+        <v>18120704</v>
+      </c>
+      <c r="P6" t="n">
+        <v>72</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>72</v>
+      </c>
+      <c r="R6" t="n">
+        <v>72</v>
+      </c>
+      <c r="S6" t="n">
+        <v>72</v>
+      </c>
+      <c r="T6" t="n">
+        <v>72</v>
+      </c>
+      <c r="U6" t="n">
+        <v>120</v>
+      </c>
+      <c r="V6" t="n">
+        <v>104</v>
+      </c>
+      <c r="W6" t="n">
+        <v>64</v>
+      </c>
+      <c r="X6" t="n">
         <v>56</v>
       </c>
     </row>

--- a/SchemeIBMETR/SchemeIBMECH.xlsx
+++ b/SchemeIBMETR/SchemeIBMECH.xlsx
@@ -574,61 +574,61 @@
         <v>20</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0187109</v>
+        <v>0.018564381</v>
       </c>
       <c r="G2" t="n">
-        <v>0.004954958</v>
+        <v>0.004809902</v>
       </c>
       <c r="H2" t="n">
-        <v>0.042653713</v>
+        <v>0.041165819</v>
       </c>
       <c r="I2" t="n">
-        <v>0.011933642</v>
+        <v>0.011452244</v>
       </c>
       <c r="J2" t="n">
-        <v>0.039361332</v>
+        <v>0.037228177</v>
       </c>
       <c r="K2" t="n">
-        <v>17791795.2</v>
+        <v>17741004.8</v>
       </c>
       <c r="L2" t="n">
-        <v>17856921.6</v>
+        <v>17794457.6</v>
       </c>
       <c r="M2" t="n">
-        <v>17856921.6</v>
+        <v>17794457.6</v>
       </c>
       <c r="N2" t="n">
-        <v>17856921.6</v>
+        <v>17794457.6</v>
       </c>
       <c r="O2" t="n">
-        <v>17856921.6</v>
+        <v>17794457.6</v>
       </c>
       <c r="P2" t="n">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="Q2" t="n">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="R2" t="n">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="S2" t="n">
-        <v>72</v>
+        <v>162</v>
       </c>
       <c r="T2" t="n">
-        <v>72</v>
+        <v>804</v>
       </c>
       <c r="U2" t="n">
-        <v>120</v>
+        <v>1616</v>
       </c>
       <c r="V2" t="n">
-        <v>104</v>
+        <v>240</v>
       </c>
       <c r="W2" t="n">
-        <v>64</v>
+        <v>1538</v>
       </c>
       <c r="X2" t="n">
-        <v>56</v>
+        <v>402</v>
       </c>
     </row>
     <row r="3">
@@ -650,61 +650,61 @@
         <v>20</v>
       </c>
       <c r="F3" t="n">
-        <v>0.024683555</v>
+        <v>0.022835273</v>
       </c>
       <c r="G3" t="n">
-        <v>0.006893011</v>
+        <v>0.006479651</v>
       </c>
       <c r="H3" t="n">
-        <v>0.055782005</v>
+        <v>0.052541297</v>
       </c>
       <c r="I3" t="n">
-        <v>0.015527114</v>
+        <v>0.014821199</v>
       </c>
       <c r="J3" t="n">
-        <v>0.050822745</v>
+        <v>0.047213511</v>
       </c>
       <c r="K3" t="n">
-        <v>17940480</v>
+        <v>17801216</v>
       </c>
       <c r="L3" t="n">
-        <v>17940480</v>
+        <v>17801216</v>
       </c>
       <c r="M3" t="n">
-        <v>17940480</v>
+        <v>17801216</v>
       </c>
       <c r="N3" t="n">
-        <v>17940480</v>
+        <v>17801216</v>
       </c>
       <c r="O3" t="n">
-        <v>17940480</v>
+        <v>17801216</v>
       </c>
       <c r="P3" t="n">
-        <v>72</v>
+        <v>34</v>
       </c>
       <c r="Q3" t="n">
-        <v>72</v>
+        <v>38</v>
       </c>
       <c r="R3" t="n">
-        <v>72</v>
+        <v>110</v>
       </c>
       <c r="S3" t="n">
-        <v>72</v>
+        <v>210</v>
       </c>
       <c r="T3" t="n">
-        <v>72</v>
+        <v>1028</v>
       </c>
       <c r="U3" t="n">
-        <v>120</v>
+        <v>1912</v>
       </c>
       <c r="V3" t="n">
-        <v>104</v>
+        <v>304</v>
       </c>
       <c r="W3" t="n">
-        <v>64</v>
+        <v>1970</v>
       </c>
       <c r="X3" t="n">
-        <v>56</v>
+        <v>514</v>
       </c>
     </row>
     <row r="4">
@@ -726,61 +726,61 @@
         <v>20</v>
       </c>
       <c r="F4" t="n">
-        <v>0.030729394</v>
+        <v>0.030021552</v>
       </c>
       <c r="G4" t="n">
-        <v>0.008651424</v>
+        <v>0.00846451</v>
       </c>
       <c r="H4" t="n">
-        <v>0.071979976</v>
+        <v>0.066120284</v>
       </c>
       <c r="I4" t="n">
-        <v>0.020128286</v>
+        <v>0.019200916</v>
       </c>
       <c r="J4" t="n">
-        <v>0.064134988</v>
+        <v>0.061050897</v>
       </c>
       <c r="K4" t="n">
-        <v>17940480</v>
+        <v>17801216</v>
       </c>
       <c r="L4" t="n">
-        <v>17940480</v>
+        <v>17801216</v>
       </c>
       <c r="M4" t="n">
-        <v>17940480</v>
+        <v>17801216</v>
       </c>
       <c r="N4" t="n">
-        <v>17940480</v>
+        <v>17801216</v>
       </c>
       <c r="O4" t="n">
-        <v>17940480</v>
+        <v>17801216</v>
       </c>
       <c r="P4" t="n">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="Q4" t="n">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="R4" t="n">
-        <v>72</v>
+        <v>118</v>
       </c>
       <c r="S4" t="n">
-        <v>72</v>
+        <v>226</v>
       </c>
       <c r="T4" t="n">
-        <v>72</v>
+        <v>1124</v>
       </c>
       <c r="U4" t="n">
-        <v>120</v>
+        <v>2260</v>
       </c>
       <c r="V4" t="n">
-        <v>104</v>
+        <v>336</v>
       </c>
       <c r="W4" t="n">
-        <v>64</v>
+        <v>2114</v>
       </c>
       <c r="X4" t="n">
-        <v>56</v>
+        <v>562</v>
       </c>
     </row>
     <row r="5">
@@ -802,61 +802,61 @@
         <v>20</v>
       </c>
       <c r="F5" t="n">
-        <v>0.05503243</v>
+        <v>0.052901364</v>
       </c>
       <c r="G5" t="n">
-        <v>0.011886919</v>
+        <v>0.011140043</v>
       </c>
       <c r="H5" t="n">
-        <v>0.024308474</v>
+        <v>0.023179518</v>
       </c>
       <c r="I5" t="n">
-        <v>0.042191016</v>
+        <v>0.039753244</v>
       </c>
       <c r="J5" t="n">
-        <v>0.167895779</v>
+        <v>0.157744646</v>
       </c>
       <c r="K5" t="n">
-        <v>18032435.2</v>
+        <v>18249932.8</v>
       </c>
       <c r="L5" t="n">
-        <v>18041036.8</v>
+        <v>18272870.4</v>
       </c>
       <c r="M5" t="n">
-        <v>18041036.8</v>
+        <v>18272870.4</v>
       </c>
       <c r="N5" t="n">
-        <v>18041036.8</v>
+        <v>18272870.4</v>
       </c>
       <c r="O5" t="n">
-        <v>18041036.8</v>
+        <v>18272870.4</v>
       </c>
       <c r="P5" t="n">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="Q5" t="n">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="R5" t="n">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="S5" t="n">
-        <v>72</v>
+        <v>514</v>
       </c>
       <c r="T5" t="n">
-        <v>72</v>
+        <v>1764</v>
       </c>
       <c r="U5" t="n">
-        <v>120</v>
+        <v>2436</v>
       </c>
       <c r="V5" t="n">
-        <v>104</v>
+        <v>368</v>
       </c>
       <c r="W5" t="n">
-        <v>64</v>
+        <v>1954</v>
       </c>
       <c r="X5" t="n">
-        <v>56</v>
+        <v>882</v>
       </c>
     </row>
     <row r="6">
@@ -878,61 +878,61 @@
         <v>20</v>
       </c>
       <c r="F6" t="n">
-        <v>0.034526771</v>
+        <v>0.030914759</v>
       </c>
       <c r="G6" t="n">
-        <v>0.014505165</v>
+        <v>0.013248289</v>
       </c>
       <c r="H6" t="n">
-        <v>0.014353428</v>
+        <v>0.013106171</v>
       </c>
       <c r="I6" t="n">
-        <v>0.016928922</v>
+        <v>0.015569831</v>
       </c>
       <c r="J6" t="n">
-        <v>0.012905557</v>
+        <v>0.011931209</v>
       </c>
       <c r="K6" t="n">
-        <v>18120704</v>
+        <v>18326323.2</v>
       </c>
       <c r="L6" t="n">
-        <v>18120704</v>
+        <v>18340249.6</v>
       </c>
       <c r="M6" t="n">
-        <v>18120704</v>
+        <v>18340249.6</v>
       </c>
       <c r="N6" t="n">
-        <v>18120704</v>
+        <v>18340249.6</v>
       </c>
       <c r="O6" t="n">
-        <v>18120704</v>
+        <v>18340249.6</v>
       </c>
       <c r="P6" t="n">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="Q6" t="n">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="R6" t="n">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="S6" t="n">
-        <v>72</v>
+        <v>174</v>
       </c>
       <c r="T6" t="n">
-        <v>72</v>
+        <v>1788</v>
       </c>
       <c r="U6" t="n">
-        <v>120</v>
+        <v>2640</v>
       </c>
       <c r="V6" t="n">
-        <v>104</v>
+        <v>720</v>
       </c>
       <c r="W6" t="n">
-        <v>64</v>
+        <v>1614</v>
       </c>
       <c r="X6" t="n">
-        <v>56</v>
+        <v>894</v>
       </c>
     </row>
   </sheetData>

--- a/SchemeIBMETR/SchemeIBMECH.xlsx
+++ b/SchemeIBMETR/SchemeIBMECH.xlsx
@@ -574,34 +574,34 @@
         <v>20</v>
       </c>
       <c r="F2" t="n">
-        <v>0.018564381</v>
+        <v>0.019049148</v>
       </c>
       <c r="G2" t="n">
-        <v>0.004809902</v>
+        <v>0.005337185</v>
       </c>
       <c r="H2" t="n">
-        <v>0.041165819</v>
+        <v>0.042059084</v>
       </c>
       <c r="I2" t="n">
-        <v>0.011452244</v>
+        <v>0.011637985</v>
       </c>
       <c r="J2" t="n">
-        <v>0.037228177</v>
+        <v>0.038274419</v>
       </c>
       <c r="K2" t="n">
-        <v>17741004.8</v>
+        <v>17841561.6</v>
       </c>
       <c r="L2" t="n">
-        <v>17794457.6</v>
+        <v>17908531.2</v>
       </c>
       <c r="M2" t="n">
-        <v>17794457.6</v>
+        <v>17908531.2</v>
       </c>
       <c r="N2" t="n">
-        <v>17794457.6</v>
+        <v>17908531.2</v>
       </c>
       <c r="O2" t="n">
-        <v>17794457.6</v>
+        <v>17908531.2</v>
       </c>
       <c r="P2" t="n">
         <v>30</v>
@@ -650,34 +650,34 @@
         <v>20</v>
       </c>
       <c r="F3" t="n">
-        <v>0.022835273</v>
+        <v>0.024899054</v>
       </c>
       <c r="G3" t="n">
-        <v>0.006479651</v>
+        <v>0.007017337</v>
       </c>
       <c r="H3" t="n">
-        <v>0.052541297</v>
+        <v>0.05459417</v>
       </c>
       <c r="I3" t="n">
-        <v>0.014821199</v>
+        <v>0.015462131</v>
       </c>
       <c r="J3" t="n">
-        <v>0.047213511</v>
+        <v>0.05106909</v>
       </c>
       <c r="K3" t="n">
-        <v>17801216</v>
+        <v>18072985.6</v>
       </c>
       <c r="L3" t="n">
-        <v>17801216</v>
+        <v>18074419.2</v>
       </c>
       <c r="M3" t="n">
-        <v>17801216</v>
+        <v>18074419.2</v>
       </c>
       <c r="N3" t="n">
-        <v>17801216</v>
+        <v>18074419.2</v>
       </c>
       <c r="O3" t="n">
-        <v>17801216</v>
+        <v>18074419.2</v>
       </c>
       <c r="P3" t="n">
         <v>34</v>
@@ -726,34 +726,34 @@
         <v>20</v>
       </c>
       <c r="F4" t="n">
-        <v>0.030021552</v>
+        <v>0.031050272</v>
       </c>
       <c r="G4" t="n">
-        <v>0.00846451</v>
+        <v>0.008641294000000001</v>
       </c>
       <c r="H4" t="n">
-        <v>0.066120284</v>
+        <v>0.066648967</v>
       </c>
       <c r="I4" t="n">
-        <v>0.019200916</v>
+        <v>0.018276007</v>
       </c>
       <c r="J4" t="n">
-        <v>0.061050897</v>
+        <v>0.059135974</v>
       </c>
       <c r="K4" t="n">
-        <v>17801216</v>
+        <v>18148966.4</v>
       </c>
       <c r="L4" t="n">
-        <v>17801216</v>
+        <v>18153472</v>
       </c>
       <c r="M4" t="n">
-        <v>17801216</v>
+        <v>18153472</v>
       </c>
       <c r="N4" t="n">
-        <v>17801216</v>
+        <v>18153472</v>
       </c>
       <c r="O4" t="n">
-        <v>17801216</v>
+        <v>18153472</v>
       </c>
       <c r="P4" t="n">
         <v>42</v>
@@ -802,34 +802,34 @@
         <v>20</v>
       </c>
       <c r="F5" t="n">
-        <v>0.052901364</v>
+        <v>0.054957398</v>
       </c>
       <c r="G5" t="n">
-        <v>0.011140043</v>
+        <v>0.011622816</v>
       </c>
       <c r="H5" t="n">
-        <v>0.023179518</v>
+        <v>0.023965991</v>
       </c>
       <c r="I5" t="n">
-        <v>0.039753244</v>
+        <v>0.041010573</v>
       </c>
       <c r="J5" t="n">
-        <v>0.157744646</v>
+        <v>0.165951132</v>
       </c>
       <c r="K5" t="n">
-        <v>18249932.8</v>
+        <v>18245427.2</v>
       </c>
       <c r="L5" t="n">
-        <v>18272870.4</v>
+        <v>18255462.4</v>
       </c>
       <c r="M5" t="n">
-        <v>18272870.4</v>
+        <v>18255462.4</v>
       </c>
       <c r="N5" t="n">
-        <v>18272870.4</v>
+        <v>18255462.4</v>
       </c>
       <c r="O5" t="n">
-        <v>18272870.4</v>
+        <v>18255462.4</v>
       </c>
       <c r="P5" t="n">
         <v>46</v>
@@ -878,34 +878,34 @@
         <v>20</v>
       </c>
       <c r="F6" t="n">
-        <v>0.030914759</v>
+        <v>0.03336221</v>
       </c>
       <c r="G6" t="n">
-        <v>0.013248289</v>
+        <v>0.013097719</v>
       </c>
       <c r="H6" t="n">
-        <v>0.013106171</v>
+        <v>0.013616285</v>
       </c>
       <c r="I6" t="n">
-        <v>0.015569831</v>
+        <v>0.015629896</v>
       </c>
       <c r="J6" t="n">
-        <v>0.011931209</v>
+        <v>0.012284235</v>
       </c>
       <c r="K6" t="n">
-        <v>18326323.2</v>
+        <v>18313420.8</v>
       </c>
       <c r="L6" t="n">
-        <v>18340249.6</v>
+        <v>18325094.4</v>
       </c>
       <c r="M6" t="n">
-        <v>18340249.6</v>
+        <v>18325299.2</v>
       </c>
       <c r="N6" t="n">
-        <v>18340249.6</v>
+        <v>18325299.2</v>
       </c>
       <c r="O6" t="n">
-        <v>18340249.6</v>
+        <v>18325299.2</v>
       </c>
       <c r="P6" t="n">
         <v>30</v>

--- a/SchemeIBMETR/SchemeIBMECH.xlsx
+++ b/SchemeIBMETR/SchemeIBMECH.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X6"/>
+  <dimension ref="A1:S6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,70 +486,45 @@
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Setup (B)</t>
+          <t>elementOfZR (B)</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>SKGen (B)</t>
+          <t>elementOfG1 (B)</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>RKGen (B)</t>
+          <t>elementOfG2 (B)</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Enc (B)</t>
+          <t>elementOfGT (B)</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>Dec (B)</t>
+          <t>mpk (B)</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>elementOfZR (B)</t>
+          <t>msk (B)</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>elementOfG1 (B)</t>
+          <t>ek_sigma (B)</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>elementOfG2 (B)</t>
+          <t>dk_rho (B)</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>elementOfGT (B)</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>mpk (B)</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>msk (B)</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>ek_sigma (B)</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>dk_rho (B)</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>CT (B)</t>
         </is>
@@ -574,60 +549,45 @@
         <v>20</v>
       </c>
       <c r="F2" t="n">
-        <v>0.019049148</v>
+        <v>0.017121687</v>
       </c>
       <c r="G2" t="n">
-        <v>0.005337185</v>
+        <v>0.004560386</v>
       </c>
       <c r="H2" t="n">
-        <v>0.042059084</v>
+        <v>0.038563518</v>
       </c>
       <c r="I2" t="n">
-        <v>0.011637985</v>
+        <v>0.010669367</v>
       </c>
       <c r="J2" t="n">
-        <v>0.038274419</v>
+        <v>0.03508363</v>
       </c>
       <c r="K2" t="n">
-        <v>17841561.6</v>
+        <v>30</v>
       </c>
       <c r="L2" t="n">
-        <v>17908531.2</v>
+        <v>30</v>
       </c>
       <c r="M2" t="n">
-        <v>17908531.2</v>
+        <v>86</v>
       </c>
       <c r="N2" t="n">
-        <v>17908531.2</v>
+        <v>162</v>
       </c>
       <c r="O2" t="n">
-        <v>17908531.2</v>
+        <v>804</v>
       </c>
       <c r="P2" t="n">
-        <v>30</v>
+        <v>1616</v>
       </c>
       <c r="Q2" t="n">
-        <v>30</v>
+        <v>240</v>
       </c>
       <c r="R2" t="n">
-        <v>86</v>
+        <v>1538</v>
       </c>
       <c r="S2" t="n">
-        <v>162</v>
-      </c>
-      <c r="T2" t="n">
-        <v>804</v>
-      </c>
-      <c r="U2" t="n">
-        <v>1616</v>
-      </c>
-      <c r="V2" t="n">
-        <v>240</v>
-      </c>
-      <c r="W2" t="n">
-        <v>1538</v>
-      </c>
-      <c r="X2" t="n">
         <v>402</v>
       </c>
     </row>
@@ -650,60 +610,45 @@
         <v>20</v>
       </c>
       <c r="F3" t="n">
-        <v>0.024899054</v>
+        <v>0.022162668</v>
       </c>
       <c r="G3" t="n">
-        <v>0.007017337</v>
+        <v>0.006164137</v>
       </c>
       <c r="H3" t="n">
-        <v>0.05459417</v>
+        <v>0.050477095</v>
       </c>
       <c r="I3" t="n">
-        <v>0.015462131</v>
+        <v>0.014419808</v>
       </c>
       <c r="J3" t="n">
-        <v>0.05106909</v>
+        <v>0.046617575</v>
       </c>
       <c r="K3" t="n">
-        <v>18072985.6</v>
+        <v>34</v>
       </c>
       <c r="L3" t="n">
-        <v>18074419.2</v>
+        <v>38</v>
       </c>
       <c r="M3" t="n">
-        <v>18074419.2</v>
+        <v>110</v>
       </c>
       <c r="N3" t="n">
-        <v>18074419.2</v>
+        <v>210</v>
       </c>
       <c r="O3" t="n">
-        <v>18074419.2</v>
+        <v>1028</v>
       </c>
       <c r="P3" t="n">
-        <v>34</v>
+        <v>1912</v>
       </c>
       <c r="Q3" t="n">
-        <v>38</v>
+        <v>304</v>
       </c>
       <c r="R3" t="n">
-        <v>110</v>
+        <v>1970</v>
       </c>
       <c r="S3" t="n">
-        <v>210</v>
-      </c>
-      <c r="T3" t="n">
-        <v>1028</v>
-      </c>
-      <c r="U3" t="n">
-        <v>1912</v>
-      </c>
-      <c r="V3" t="n">
-        <v>304</v>
-      </c>
-      <c r="W3" t="n">
-        <v>1970</v>
-      </c>
-      <c r="X3" t="n">
         <v>514</v>
       </c>
     </row>
@@ -726,60 +671,45 @@
         <v>20</v>
       </c>
       <c r="F4" t="n">
-        <v>0.031050272</v>
+        <v>0.028566922</v>
       </c>
       <c r="G4" t="n">
-        <v>0.008641294000000001</v>
+        <v>0.007937764</v>
       </c>
       <c r="H4" t="n">
-        <v>0.066648967</v>
+        <v>0.06419899699999999</v>
       </c>
       <c r="I4" t="n">
-        <v>0.018276007</v>
+        <v>0.018514101</v>
       </c>
       <c r="J4" t="n">
-        <v>0.059135974</v>
+        <v>0.057655327</v>
       </c>
       <c r="K4" t="n">
-        <v>18148966.4</v>
+        <v>42</v>
       </c>
       <c r="L4" t="n">
-        <v>18153472</v>
+        <v>42</v>
       </c>
       <c r="M4" t="n">
-        <v>18153472</v>
+        <v>118</v>
       </c>
       <c r="N4" t="n">
-        <v>18153472</v>
+        <v>226</v>
       </c>
       <c r="O4" t="n">
-        <v>18153472</v>
+        <v>1124</v>
       </c>
       <c r="P4" t="n">
-        <v>42</v>
+        <v>2260</v>
       </c>
       <c r="Q4" t="n">
-        <v>42</v>
+        <v>336</v>
       </c>
       <c r="R4" t="n">
-        <v>118</v>
+        <v>2114</v>
       </c>
       <c r="S4" t="n">
-        <v>226</v>
-      </c>
-      <c r="T4" t="n">
-        <v>1124</v>
-      </c>
-      <c r="U4" t="n">
-        <v>2260</v>
-      </c>
-      <c r="V4" t="n">
-        <v>336</v>
-      </c>
-      <c r="W4" t="n">
-        <v>2114</v>
-      </c>
-      <c r="X4" t="n">
         <v>562</v>
       </c>
     </row>
@@ -802,60 +732,45 @@
         <v>20</v>
       </c>
       <c r="F5" t="n">
-        <v>0.054957398</v>
+        <v>0.051001277</v>
       </c>
       <c r="G5" t="n">
-        <v>0.011622816</v>
+        <v>0.010542709</v>
       </c>
       <c r="H5" t="n">
-        <v>0.023965991</v>
+        <v>0.022854546</v>
       </c>
       <c r="I5" t="n">
-        <v>0.041010573</v>
+        <v>0.037788244</v>
       </c>
       <c r="J5" t="n">
-        <v>0.165951132</v>
+        <v>0.154581536</v>
       </c>
       <c r="K5" t="n">
-        <v>18245427.2</v>
+        <v>46</v>
       </c>
       <c r="L5" t="n">
-        <v>18255462.4</v>
+        <v>46</v>
       </c>
       <c r="M5" t="n">
-        <v>18255462.4</v>
+        <v>90</v>
       </c>
       <c r="N5" t="n">
-        <v>18255462.4</v>
+        <v>514</v>
       </c>
       <c r="O5" t="n">
-        <v>18255462.4</v>
+        <v>1764</v>
       </c>
       <c r="P5" t="n">
-        <v>46</v>
+        <v>2436</v>
       </c>
       <c r="Q5" t="n">
-        <v>46</v>
+        <v>368</v>
       </c>
       <c r="R5" t="n">
-        <v>90</v>
+        <v>1954</v>
       </c>
       <c r="S5" t="n">
-        <v>514</v>
-      </c>
-      <c r="T5" t="n">
-        <v>1764</v>
-      </c>
-      <c r="U5" t="n">
-        <v>2436</v>
-      </c>
-      <c r="V5" t="n">
-        <v>368</v>
-      </c>
-      <c r="W5" t="n">
-        <v>1954</v>
-      </c>
-      <c r="X5" t="n">
         <v>882</v>
       </c>
     </row>
@@ -878,60 +793,45 @@
         <v>20</v>
       </c>
       <c r="F6" t="n">
-        <v>0.03336221</v>
+        <v>0.029798762</v>
       </c>
       <c r="G6" t="n">
-        <v>0.013097719</v>
+        <v>0.012419224</v>
       </c>
       <c r="H6" t="n">
-        <v>0.013616285</v>
+        <v>0.012378208</v>
       </c>
       <c r="I6" t="n">
-        <v>0.015629896</v>
+        <v>0.014749285</v>
       </c>
       <c r="J6" t="n">
-        <v>0.012284235</v>
+        <v>0.011344601</v>
       </c>
       <c r="K6" t="n">
-        <v>18313420.8</v>
+        <v>30</v>
       </c>
       <c r="L6" t="n">
-        <v>18325094.4</v>
+        <v>90</v>
       </c>
       <c r="M6" t="n">
-        <v>18325299.2</v>
+        <v>90</v>
       </c>
       <c r="N6" t="n">
-        <v>18325299.2</v>
+        <v>174</v>
       </c>
       <c r="O6" t="n">
-        <v>18325299.2</v>
+        <v>1788</v>
       </c>
       <c r="P6" t="n">
-        <v>30</v>
+        <v>2640</v>
       </c>
       <c r="Q6" t="n">
-        <v>90</v>
+        <v>720</v>
       </c>
       <c r="R6" t="n">
-        <v>90</v>
+        <v>1614</v>
       </c>
       <c r="S6" t="n">
-        <v>174</v>
-      </c>
-      <c r="T6" t="n">
-        <v>1788</v>
-      </c>
-      <c r="U6" t="n">
-        <v>2640</v>
-      </c>
-      <c r="V6" t="n">
-        <v>720</v>
-      </c>
-      <c r="W6" t="n">
-        <v>1614</v>
-      </c>
-      <c r="X6" t="n">
         <v>894</v>
       </c>
     </row>

--- a/SchemeIBMETR/SchemeIBMECH.xlsx
+++ b/SchemeIBMETR/SchemeIBMECH.xlsx
@@ -549,19 +549,19 @@
         <v>20</v>
       </c>
       <c r="F2" t="n">
-        <v>0.017121687</v>
+        <v>0.002170208</v>
       </c>
       <c r="G2" t="n">
-        <v>0.004560386</v>
+        <v>6.1702e-05</v>
       </c>
       <c r="H2" t="n">
-        <v>0.038563518</v>
+        <v>0.000355521</v>
       </c>
       <c r="I2" t="n">
-        <v>0.010669367</v>
+        <v>0.000801372</v>
       </c>
       <c r="J2" t="n">
-        <v>0.03508363</v>
+        <v>5.954e-05</v>
       </c>
       <c r="K2" t="n">
         <v>30</v>
@@ -610,19 +610,19 @@
         <v>20</v>
       </c>
       <c r="F3" t="n">
-        <v>0.022162668</v>
+        <v>0.002232017</v>
       </c>
       <c r="G3" t="n">
-        <v>0.006164137</v>
+        <v>7.142199999999999e-05</v>
       </c>
       <c r="H3" t="n">
-        <v>0.050477095</v>
+        <v>0.000378583</v>
       </c>
       <c r="I3" t="n">
-        <v>0.014419808</v>
+        <v>0.0009959719999999999</v>
       </c>
       <c r="J3" t="n">
-        <v>0.046617575</v>
+        <v>7.087700000000001e-05</v>
       </c>
       <c r="K3" t="n">
         <v>34</v>
@@ -671,19 +671,19 @@
         <v>20</v>
       </c>
       <c r="F4" t="n">
-        <v>0.028566922</v>
+        <v>0.002514797</v>
       </c>
       <c r="G4" t="n">
-        <v>0.007937764</v>
+        <v>7.4918e-05</v>
       </c>
       <c r="H4" t="n">
-        <v>0.06419899699999999</v>
+        <v>0.000441153</v>
       </c>
       <c r="I4" t="n">
-        <v>0.018514101</v>
+        <v>0.001257449</v>
       </c>
       <c r="J4" t="n">
-        <v>0.057655327</v>
+        <v>7.8262e-05</v>
       </c>
       <c r="K4" t="n">
         <v>42</v>
@@ -732,19 +732,19 @@
         <v>20</v>
       </c>
       <c r="F5" t="n">
-        <v>0.051001277</v>
+        <v>0.005836721</v>
       </c>
       <c r="G5" t="n">
-        <v>0.010542709</v>
+        <v>9.3065e-05</v>
       </c>
       <c r="H5" t="n">
-        <v>0.022854546</v>
+        <v>0.001943614</v>
       </c>
       <c r="I5" t="n">
-        <v>0.037788244</v>
+        <v>0.005559533</v>
       </c>
       <c r="J5" t="n">
-        <v>0.154581536</v>
+        <v>0.000128692</v>
       </c>
       <c r="K5" t="n">
         <v>46</v>
@@ -793,19 +793,19 @@
         <v>20</v>
       </c>
       <c r="F6" t="n">
-        <v>0.029798762</v>
+        <v>0.001699798</v>
       </c>
       <c r="G6" t="n">
-        <v>0.012419224</v>
+        <v>6.685399999999999e-05</v>
       </c>
       <c r="H6" t="n">
-        <v>0.012378208</v>
+        <v>0.000128852</v>
       </c>
       <c r="I6" t="n">
-        <v>0.014749285</v>
+        <v>0.000163051</v>
       </c>
       <c r="J6" t="n">
-        <v>0.011344601</v>
+        <v>3.0992e-05</v>
       </c>
       <c r="K6" t="n">
         <v>30</v>

--- a/SchemeIBMETR/SchemeIBMECH.xlsx
+++ b/SchemeIBMETR/SchemeIBMECH.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S6"/>
+  <dimension ref="A1:S11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -549,19 +549,19 @@
         <v>20</v>
       </c>
       <c r="F2" t="n">
-        <v>0.002170208</v>
+        <v>0.002106579</v>
       </c>
       <c r="G2" t="n">
-        <v>6.1702e-05</v>
+        <v>5.703e-05</v>
       </c>
       <c r="H2" t="n">
-        <v>0.000355521</v>
+        <v>0.000322754</v>
       </c>
       <c r="I2" t="n">
-        <v>0.000801372</v>
+        <v>0.0007777870000000001</v>
       </c>
       <c r="J2" t="n">
-        <v>5.954e-05</v>
+        <v>5.6517e-05</v>
       </c>
       <c r="K2" t="n">
         <v>30</v>
@@ -610,19 +610,19 @@
         <v>20</v>
       </c>
       <c r="F3" t="n">
-        <v>0.002232017</v>
+        <v>0.00225584</v>
       </c>
       <c r="G3" t="n">
-        <v>7.142199999999999e-05</v>
+        <v>6.9794e-05</v>
       </c>
       <c r="H3" t="n">
-        <v>0.000378583</v>
+        <v>0.000363751</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0009959719999999999</v>
+        <v>0.000963633</v>
       </c>
       <c r="J3" t="n">
-        <v>7.087700000000001e-05</v>
+        <v>6.7708e-05</v>
       </c>
       <c r="K3" t="n">
         <v>34</v>
@@ -671,19 +671,19 @@
         <v>20</v>
       </c>
       <c r="F4" t="n">
-        <v>0.002514797</v>
+        <v>0.002554991</v>
       </c>
       <c r="G4" t="n">
-        <v>7.4918e-05</v>
+        <v>7.3703e-05</v>
       </c>
       <c r="H4" t="n">
-        <v>0.000441153</v>
+        <v>0.000420413</v>
       </c>
       <c r="I4" t="n">
-        <v>0.001257449</v>
+        <v>0.001145464</v>
       </c>
       <c r="J4" t="n">
-        <v>7.8262e-05</v>
+        <v>6.9935e-05</v>
       </c>
       <c r="K4" t="n">
         <v>42</v>
@@ -732,19 +732,19 @@
         <v>20</v>
       </c>
       <c r="F5" t="n">
-        <v>0.005836721</v>
+        <v>0.005649811</v>
       </c>
       <c r="G5" t="n">
-        <v>9.3065e-05</v>
+        <v>8.449300000000001e-05</v>
       </c>
       <c r="H5" t="n">
-        <v>0.001943614</v>
+        <v>0.00188377</v>
       </c>
       <c r="I5" t="n">
-        <v>0.005559533</v>
+        <v>0.005430048</v>
       </c>
       <c r="J5" t="n">
-        <v>0.000128692</v>
+        <v>0.0001225</v>
       </c>
       <c r="K5" t="n">
         <v>46</v>
@@ -781,7 +781,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>512</v>
+        <v>128</v>
       </c>
       <c r="C6" t="n">
         <v>20</v>
@@ -793,19 +793,19 @@
         <v>20</v>
       </c>
       <c r="F6" t="n">
-        <v>0.001699798</v>
+        <v>0.001751322</v>
       </c>
       <c r="G6" t="n">
-        <v>6.685399999999999e-05</v>
+        <v>6.2897e-05</v>
       </c>
       <c r="H6" t="n">
-        <v>0.000128852</v>
+        <v>0.000127806</v>
       </c>
       <c r="I6" t="n">
-        <v>0.000163051</v>
+        <v>0.000195878</v>
       </c>
       <c r="J6" t="n">
-        <v>3.0992e-05</v>
+        <v>3.2268e-05</v>
       </c>
       <c r="K6" t="n">
         <v>30</v>
@@ -832,6 +832,311 @@
         <v>1614</v>
       </c>
       <c r="S6" t="n">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>SS512</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>160</v>
+      </c>
+      <c r="C7" t="n">
+        <v>20</v>
+      </c>
+      <c r="D7" t="n">
+        <v>20</v>
+      </c>
+      <c r="E7" t="n">
+        <v>20</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.001765562</v>
+      </c>
+      <c r="G7" t="n">
+        <v>6.6331e-05</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.000144599</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.000175328</v>
+      </c>
+      <c r="J7" t="n">
+        <v>3.1529e-05</v>
+      </c>
+      <c r="K7" t="n">
+        <v>30</v>
+      </c>
+      <c r="L7" t="n">
+        <v>90</v>
+      </c>
+      <c r="M7" t="n">
+        <v>90</v>
+      </c>
+      <c r="N7" t="n">
+        <v>174</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1788</v>
+      </c>
+      <c r="P7" t="n">
+        <v>2640</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>720</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1614</v>
+      </c>
+      <c r="S7" t="n">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>SS512</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>224</v>
+      </c>
+      <c r="C8" t="n">
+        <v>20</v>
+      </c>
+      <c r="D8" t="n">
+        <v>20</v>
+      </c>
+      <c r="E8" t="n">
+        <v>20</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.001812861</v>
+      </c>
+      <c r="G8" t="n">
+        <v>6.4391e-05</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.00012725</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.000168715</v>
+      </c>
+      <c r="J8" t="n">
+        <v>3.0867e-05</v>
+      </c>
+      <c r="K8" t="n">
+        <v>30</v>
+      </c>
+      <c r="L8" t="n">
+        <v>90</v>
+      </c>
+      <c r="M8" t="n">
+        <v>90</v>
+      </c>
+      <c r="N8" t="n">
+        <v>174</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1788</v>
+      </c>
+      <c r="P8" t="n">
+        <v>2640</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>720</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1614</v>
+      </c>
+      <c r="S8" t="n">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>SS512</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>256</v>
+      </c>
+      <c r="C9" t="n">
+        <v>20</v>
+      </c>
+      <c r="D9" t="n">
+        <v>20</v>
+      </c>
+      <c r="E9" t="n">
+        <v>20</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.001828347</v>
+      </c>
+      <c r="G9" t="n">
+        <v>6.6386e-05</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.000130165</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.00017611</v>
+      </c>
+      <c r="J9" t="n">
+        <v>3.1217e-05</v>
+      </c>
+      <c r="K9" t="n">
+        <v>30</v>
+      </c>
+      <c r="L9" t="n">
+        <v>90</v>
+      </c>
+      <c r="M9" t="n">
+        <v>90</v>
+      </c>
+      <c r="N9" t="n">
+        <v>174</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1788</v>
+      </c>
+      <c r="P9" t="n">
+        <v>2640</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>720</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1614</v>
+      </c>
+      <c r="S9" t="n">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>SS512</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>384</v>
+      </c>
+      <c r="C10" t="n">
+        <v>20</v>
+      </c>
+      <c r="D10" t="n">
+        <v>20</v>
+      </c>
+      <c r="E10" t="n">
+        <v>20</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.001851098</v>
+      </c>
+      <c r="G10" t="n">
+        <v>6.634000000000001e-05</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.000134969</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.000184833</v>
+      </c>
+      <c r="J10" t="n">
+        <v>3.2155e-05</v>
+      </c>
+      <c r="K10" t="n">
+        <v>30</v>
+      </c>
+      <c r="L10" t="n">
+        <v>90</v>
+      </c>
+      <c r="M10" t="n">
+        <v>90</v>
+      </c>
+      <c r="N10" t="n">
+        <v>174</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1788</v>
+      </c>
+      <c r="P10" t="n">
+        <v>2640</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>720</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1614</v>
+      </c>
+      <c r="S10" t="n">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>SS512</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>512</v>
+      </c>
+      <c r="C11" t="n">
+        <v>20</v>
+      </c>
+      <c r="D11" t="n">
+        <v>20</v>
+      </c>
+      <c r="E11" t="n">
+        <v>20</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.002181935</v>
+      </c>
+      <c r="G11" t="n">
+        <v>8.7703e-05</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.000156287</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.000215585</v>
+      </c>
+      <c r="J11" t="n">
+        <v>3.811e-05</v>
+      </c>
+      <c r="K11" t="n">
+        <v>30</v>
+      </c>
+      <c r="L11" t="n">
+        <v>90</v>
+      </c>
+      <c r="M11" t="n">
+        <v>90</v>
+      </c>
+      <c r="N11" t="n">
+        <v>174</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1788</v>
+      </c>
+      <c r="P11" t="n">
+        <v>2640</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>720</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1614</v>
+      </c>
+      <c r="S11" t="n">
         <v>894</v>
       </c>
     </row>

--- a/SchemeIBMETR/SchemeIBMECH.xlsx
+++ b/SchemeIBMETR/SchemeIBMECH.xlsx
@@ -540,28 +540,28 @@
         <v>512</v>
       </c>
       <c r="C2" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="D2" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F2" t="n">
-        <v>0.002106579</v>
+        <v>0.001957344</v>
       </c>
       <c r="G2" t="n">
-        <v>5.703e-05</v>
+        <v>5.5093e-05</v>
       </c>
       <c r="H2" t="n">
-        <v>0.000322754</v>
+        <v>0.000305484</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0007777870000000001</v>
+        <v>0.000722948</v>
       </c>
       <c r="J2" t="n">
-        <v>5.6517e-05</v>
+        <v>5.5382e-05</v>
       </c>
       <c r="K2" t="n">
         <v>30</v>
@@ -601,28 +601,28 @@
         <v>512</v>
       </c>
       <c r="C3" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="D3" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="E3" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F3" t="n">
-        <v>0.00225584</v>
+        <v>0.002072527</v>
       </c>
       <c r="G3" t="n">
-        <v>6.9794e-05</v>
+        <v>6.4815e-05</v>
       </c>
       <c r="H3" t="n">
-        <v>0.000363751</v>
+        <v>0.000337878</v>
       </c>
       <c r="I3" t="n">
-        <v>0.000963633</v>
+        <v>0.000884624</v>
       </c>
       <c r="J3" t="n">
-        <v>6.7708e-05</v>
+        <v>6.577e-05</v>
       </c>
       <c r="K3" t="n">
         <v>34</v>
@@ -662,28 +662,28 @@
         <v>512</v>
       </c>
       <c r="C4" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="D4" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="E4" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F4" t="n">
-        <v>0.002554991</v>
+        <v>0.002316408</v>
       </c>
       <c r="G4" t="n">
-        <v>7.3703e-05</v>
+        <v>6.768800000000001e-05</v>
       </c>
       <c r="H4" t="n">
-        <v>0.000420413</v>
+        <v>0.000389025</v>
       </c>
       <c r="I4" t="n">
-        <v>0.001145464</v>
+        <v>0.001076231</v>
       </c>
       <c r="J4" t="n">
-        <v>6.9935e-05</v>
+        <v>6.739700000000001e-05</v>
       </c>
       <c r="K4" t="n">
         <v>42</v>
@@ -723,28 +723,28 @@
         <v>512</v>
       </c>
       <c r="C5" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="D5" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="E5" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F5" t="n">
-        <v>0.005649811</v>
+        <v>0.005107648</v>
       </c>
       <c r="G5" t="n">
-        <v>8.449300000000001e-05</v>
+        <v>7.5761e-05</v>
       </c>
       <c r="H5" t="n">
-        <v>0.00188377</v>
+        <v>0.00172735</v>
       </c>
       <c r="I5" t="n">
-        <v>0.005430048</v>
+        <v>0.004914018</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0001225</v>
+        <v>0.00011322</v>
       </c>
       <c r="K5" t="n">
         <v>46</v>
@@ -784,28 +784,28 @@
         <v>128</v>
       </c>
       <c r="C6" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="D6" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="E6" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F6" t="n">
-        <v>0.001751322</v>
+        <v>0.001636823</v>
       </c>
       <c r="G6" t="n">
-        <v>6.2897e-05</v>
+        <v>5.8198e-05</v>
       </c>
       <c r="H6" t="n">
-        <v>0.000127806</v>
+        <v>0.000117035</v>
       </c>
       <c r="I6" t="n">
-        <v>0.000195878</v>
+        <v>0.000157222</v>
       </c>
       <c r="J6" t="n">
-        <v>3.2268e-05</v>
+        <v>2.8535e-05</v>
       </c>
       <c r="K6" t="n">
         <v>30</v>
@@ -845,28 +845,28 @@
         <v>160</v>
       </c>
       <c r="C7" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="D7" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="E7" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F7" t="n">
-        <v>0.001765562</v>
+        <v>0.001642417</v>
       </c>
       <c r="G7" t="n">
-        <v>6.6331e-05</v>
+        <v>5.985e-05</v>
       </c>
       <c r="H7" t="n">
-        <v>0.000144599</v>
+        <v>0.000119642</v>
       </c>
       <c r="I7" t="n">
-        <v>0.000175328</v>
+        <v>0.000160367</v>
       </c>
       <c r="J7" t="n">
-        <v>3.1529e-05</v>
+        <v>2.9661e-05</v>
       </c>
       <c r="K7" t="n">
         <v>30</v>
@@ -906,28 +906,28 @@
         <v>224</v>
       </c>
       <c r="C8" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="D8" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="E8" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F8" t="n">
-        <v>0.001812861</v>
+        <v>0.001630731</v>
       </c>
       <c r="G8" t="n">
-        <v>6.4391e-05</v>
+        <v>5.968e-05</v>
       </c>
       <c r="H8" t="n">
-        <v>0.00012725</v>
+        <v>0.000118577</v>
       </c>
       <c r="I8" t="n">
-        <v>0.000168715</v>
+        <v>0.000156166</v>
       </c>
       <c r="J8" t="n">
-        <v>3.0867e-05</v>
+        <v>2.8576e-05</v>
       </c>
       <c r="K8" t="n">
         <v>30</v>
@@ -967,28 +967,28 @@
         <v>256</v>
       </c>
       <c r="C9" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="D9" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="E9" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F9" t="n">
-        <v>0.001828347</v>
+        <v>0.001627111</v>
       </c>
       <c r="G9" t="n">
-        <v>6.6386e-05</v>
+        <v>5.8014e-05</v>
       </c>
       <c r="H9" t="n">
-        <v>0.000130165</v>
+        <v>0.000117012</v>
       </c>
       <c r="I9" t="n">
-        <v>0.00017611</v>
+        <v>0.000154127</v>
       </c>
       <c r="J9" t="n">
-        <v>3.1217e-05</v>
+        <v>2.8816e-05</v>
       </c>
       <c r="K9" t="n">
         <v>30</v>
@@ -1028,28 +1028,28 @@
         <v>384</v>
       </c>
       <c r="C10" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="D10" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="E10" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F10" t="n">
-        <v>0.001851098</v>
+        <v>0.001630779</v>
       </c>
       <c r="G10" t="n">
-        <v>6.634000000000001e-05</v>
+        <v>6.0885e-05</v>
       </c>
       <c r="H10" t="n">
-        <v>0.000134969</v>
+        <v>0.000119106</v>
       </c>
       <c r="I10" t="n">
-        <v>0.000184833</v>
+        <v>0.000159365</v>
       </c>
       <c r="J10" t="n">
-        <v>3.2155e-05</v>
+        <v>3.0346e-05</v>
       </c>
       <c r="K10" t="n">
         <v>30</v>
@@ -1089,28 +1089,28 @@
         <v>512</v>
       </c>
       <c r="C11" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="D11" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="E11" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F11" t="n">
-        <v>0.002181935</v>
+        <v>0.001648382</v>
       </c>
       <c r="G11" t="n">
-        <v>8.7703e-05</v>
+        <v>5.9254e-05</v>
       </c>
       <c r="H11" t="n">
-        <v>0.000156287</v>
+        <v>0.00011788</v>
       </c>
       <c r="I11" t="n">
-        <v>0.000215585</v>
+        <v>0.00015718</v>
       </c>
       <c r="J11" t="n">
-        <v>3.811e-05</v>
+        <v>2.9115e-05</v>
       </c>
       <c r="K11" t="n">
         <v>30</v>
